--- a/data/evaluate/site-search-results-pruned.xlsx
+++ b/data/evaluate/site-search-results-pruned.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,7 +495,7 @@
       <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Annual Registration Document of Standard Chartered
-Bank for 2022 filetype: pdf</t>
+for 2022 filetype: pdf</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
@@ -508,10 +508,10 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>Trust Bank becomes one of the fastest growing
-digital banks. In December Trust Bank the Group's
-digital bank in Singapore passed 450000 customers
-within ...</t>
+          <t>Annual report 2022 | Standard Chartered | Annual
+Report 2022 Connecting the world's most dynamic
+markets Read our annual report Full year results
+2022 Read ...</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr"/>
@@ -524,9 +524,10 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>The snippet contains the exact phrase 'Annual
-report 2022' which is a strong indicator of an
-annual report.</t>
+          <t>The snippet contains the phrase 'Annual report
+2022 | Standard Chartered | Annual Report 2022'.
+This indicates that the document is an annual
+report, which is a type of financial document.</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -540,11 +541,11 @@
       <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Annual Registration Document of Standard Chartered
-Bank for 2022 filetype: pdf</t>
+for 2022 filetype: pdf</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
@@ -596,7 +597,7 @@
       <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Annual Registration Document of Standard Chartered
-Bank for 2022 filetype: pdf</t>
+for 2022 filetype: pdf</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
@@ -609,10 +610,10 @@
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>Mar 3 2016 ... Standard Chartered Bank (Pakistan)
-Ltd. Points of interest. Standard Chartered ...
-Standard Chartered Annual Report 2015. NOTICE OF
-ANNUAL GENERAL ...</t>
+          <t>Mar 3 2016 ... ... Standard Chartered Annual
+Report 2015. NOTICE OF ANNUAL GENERAL MEETING ...
+registration details are uploaded as per the
+Regulations shall ...</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -634,8 +635,9 @@
       <c r="I4" s="3" t="inlineStr">
         <is>
           <t>The snippet contains 'Standard Chartered Annual
-Report 2015' and 'NOTICE OF ANNUAL GENERAL', which
-are strong indicators of an annual report.</t>
+Report 2015' and 'NOTICE OF ANNUAL GENERAL
+MEETING', which are strong indicators of an Annual
+Report.</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -649,7 +651,7 @@
       <c r="A5" s="3" t="inlineStr">
         <is>
           <t>Annual Registration Document of Standard Chartered
-Bank for 2022 filetype: pdf</t>
+for 2022 filetype: pdf</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
@@ -706,7 +708,7 @@
       <c r="A6" s="3" t="inlineStr">
         <is>
           <t>Annual Registration Document of Standard Chartered
-Bank for 2022 filetype: pdf</t>
+for 2022 filetype: pdf</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
@@ -753,10 +755,4496 @@
           <t>The document is titled 'Notice of 2019 Annual
 General Meeting' and contains information about
 the Board of Directors, which suggests that it is
+an Annual Registration Document.</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="30" customHeight="1">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>General Corporate Report of Indian Overseas Bank
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>The Hongkong and Shanghai Banking Corporation
+Limited - Annual ...</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Feb 22 2022 ... A Chinese translation of the
+Annual Report and Accounts 2021 is available upon
+request from: Communications (Asia) Level 32. HSBC
+Main ...</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>The Hongkong and Shanghai Banking Corporation
+Limited - Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>D:20220221201520+08'00'</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>The snippet contains the text "Annual Report and
+Accounts 2021", which is a strong indicator that
+the document is an annual report.</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="30" customHeight="1">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>General Corporate Report of Indian Overseas Bank
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>IOB BSMD CO - Policy on Appointment of Statutory
+Central ...</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>In terms of RBI guidelines on 'Norms on
+eligibility empanelment and selection of Statutory
+Branch Auditors in Public Sector Banks (PSBs)'
+PSBs shall allot the ...</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr"/>
+      <c r="F8" s="3" t="inlineStr"/>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>Wed Feb 9 10:23:39 2022</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>Corporate Governance and Charter</t>
+        </is>
+      </c>
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>The snippet mentions 'Norms on eligibility
+empanelment and selection of Statutory Branch
+Auditors in Public Sector Banks (PSBs)' and 'PSBs
+shall allot the', which are related to Corporate
+Governance and Charter.</t>
+        </is>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.iob.in/upload/CEDocuments/iobPolicyAppointmentStatutoryCentralAuditorsStatutoryBranchAuditors.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="30" customHeight="1">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>General Corporate Report of Indian Overseas Bank
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>210223-presentation-to-investors-and-analysts.pdf</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>Feb 23 2021 ... ◇ For Overseas Indian customers
+grow NRI hubs enabled by digital and remittance
+... banks' disclosures in their annual reports.
+36. Source: ...</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>Presentation to Investors and Analysts</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2020</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>D:20210611145817+01'00'</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>The snippet contains the text
+"210223-presentation-to-investors-and-analysts.pdf",
+which suggests that the document is an annual
+report.</t>
+        </is>
+      </c>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2020/annual/pdfs/hsbc-holdings-plc/210223-presentation-to-investors-and-analysts.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="30" customHeight="1">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>General Corporate Report of Indian Overseas Bank
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Indian Overseas Bank</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Nov 12 2021 ... ... Annual reports of 2018-19
+2019-20 and 2020-21 should be attached. In case
+annual report of 2020-21 is not available
+provisional reports.</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr"/>
+      <c r="F10" s="3" t="inlineStr"/>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>D:20211105115802+05'30'</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <t>The snippet contains 'Annual reports of 2018-19
+2019-20 and 2020-21 should be attached'. This is
+strong evidence that the document is an annual
+report.</t>
+        </is>
+      </c>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.iob.in/Upload/Tender/IOB1152021120818PM_RFPITD0172122.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="30" customHeight="1">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>General Corporate Report of Indian Overseas Bank
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>NAME ADDRESS K.VELUSAMY K.VELUSAMY S/O ISHAR DAS
+...</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>... INDIAN OVERSEAS BANK. UNCLAIMED BALANCES AS ON
+30.09.2023. Page 2. " EASWARAN TOOLS. " EASWARAN
+TOOLS. " EME SERVICES &amp;. " EME SERVICES &amp;. "
+ERUMIYAMPA.</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr"/>
+      <c r="F11" s="3" t="inlineStr"/>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>D:20231005144210+05'30'</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>The document is titled "General Corporate Report
+of Indian Overseas Bank for 2022". The snippet
+contains the words "UNCLAIMED BALANCES", "Page 2",
+and "30.09.2023". These are all indicative of an
+annual report.</t>
+        </is>
+      </c>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.iob.in/upload/CEDocuments/UNCL-WEB01-2019-04.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="30" customHeight="1">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>General Corporate Report of Indian Overseas Bank
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>NAME ADDRESS ANNAMMA JACOBTHARAKAN T JACOB 60 ...</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>INDIAN OVERSEAS BANKSTATION ROADRAIPUR. C.G.PIN
+CODE 492009. ANUP DANGB.SC ... GENERAL STORES.
+LAXMINAGAR GODAVARIKHANI. ARAVIND MENIAL ST.
+ARAVIND MOBILES.</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr"/>
+      <c r="F12" s="3" t="inlineStr"/>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>D:20231005145909+05'30'</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I12" s="3" t="inlineStr">
+        <is>
+          <t>The snippet contains the words 'General Corporate
+Report' which is a synonym for 'Annual Report'
+mentioned in the list of topics.</t>
+        </is>
+      </c>
+      <c r="J12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.iob.in/upload/CEDocuments/UNCL-WEB02-2019-04.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="30" customHeight="1">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>General Corporate Report of Indian Overseas Bank
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>Interim Report 2018</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>Aug 6 2018 ... This document comprises the Interim
+Report 2018 for The. Hongkong and Shanghai Banking
+Corporation Limited ('the Bank') and its
+subsidiaries ( ...</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>Interim Report 2018</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>Interim results 2018</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>D:20180901110000Z</t>
+        </is>
+      </c>
+      <c r="H13" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I13" s="3" t="inlineStr">
+        <is>
+          <t>The snippet contains the text "Interim Report
+2018", which is a synonym for "Annual Report".</t>
+        </is>
+      </c>
+      <c r="J13" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2018/interim-results/the-hongkong-and-shanghai-banking-corporation-limited/180806-interim-report-2018.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="30" customHeight="1">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>General Corporate Report of Indian Overseas Bank
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>NAME ADDRESS DINESHKUMAR S DINESHKUMAR S ...</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>... INDIAN OVERSEAS BANK. UNCLAIMED BALANCES AS ON
+30.09.2023. Page 2 ... GENERAL HOSPITAL. DR RAMESH
+KODAVATIGANTI. DR RAMESH PRASAD. DR RAMESH PRASAD.
+DR RAMESHDR ...</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr"/>
+      <c r="F14" s="3" t="inlineStr"/>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>D:20231005152454+05'30'</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>The document is titled 'General Corporate Report'
+and contains information about the company's
+financial performance, which is indicative of an
+annual report.</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.iob.in/upload/CEDocuments/UNCL-WEB04-2019-04.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="30" customHeight="1">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>General Corporate Report of Indian Overseas Bank
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>NAME ADDRESS H NAZEER AHAMED GNANIYAR H NAZEER ...</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>... INDIAN OVERSEAS BANK. UNCLAIMED BALANCES AS ON
+30.09.2023. Page 2. H P BHARAT ... REPORT.
+H.DAVAMANI REPORT. H.DAWOOD GANI. H.DAWOOD
+MOHIDEEN. H.DAWOOD MOHIDEEN.</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr"/>
+      <c r="F15" s="3" t="inlineStr"/>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>D:20231005153340+05'30'</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>The document is titled 'General Corporate Report'
+and contains information about the company's
+financial performance and other relevant
+information.</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.iob.in/upload/CEDocuments/UNCL-WEB05-2019-04.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="30" customHeight="1">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report of Commerzbank for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>General Presentation_This is Commerzbank</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>Aug 4 2023 ... ○ 2021. Manfred Knof new Chairman
+of the Board of Managing Directors ... taken or
+derived from industry reports published by third
+parties ...</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>General Presentation_This is Commerzbank</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr"/>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>D:20230803144902+02'00'</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I16" s="3" t="inlineStr">
+        <is>
+          <t>The snippet contains '2021 Annual Report'. The PDF
+URL contains 'Commerzbank_Basispraesentation.pdf'
+which is a German word for 'basic presentation'.
+'General Presentation_This is Commerzbank' further
+supports the classification.</t>
+        </is>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.commerzbank.com/media/en/presse/presentations/Commerzbank_Basispraesentation.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="30" customHeight="1">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report of Commerzbank for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Bank plc - Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>Feb 21 2022 ... ... Audit Committee Chief
+Financial Officer of. Commerzbank Group Partner
+and Director of the Boston. Consulting Group as
+well as non-executive ...</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2021</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>D:20220222012612+05'30'</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="inlineStr">
+        <is>
+          <t>The document is titled 'HSBC Bank plc - Annual
+Report and Accounts 2021' and contains 'Annual
+Report' in the snippet.</t>
+        </is>
+      </c>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="30" customHeight="1">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report of Commerzbank for 2022 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>General Presentation_This is Commerzbank</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>Aug 4 2023 ... 1 Europe Middle East Africa. €m. Q2
+2022. FY 2022. Q2 2023. Revenues ... taken or
+derived from industry reports published by third
+parties ...</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>General Presentation_This is Commerzbank</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr"/>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>D:20230803144902+02'00'</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
+          <t>The document is titled 'General Presentation_This
+is Commerzbank' and contains financial information
+such as revenues for Q2 2022 and FY 2022, which
+are indicative of an annual report.</t>
+        </is>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.commerzbank.com/media/en/presse/presentations/Commerzbank_Basispraesentation.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="30" customHeight="1">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report of Commerzbank for 2022 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Bank plc - Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>Feb 21 2022 ... ... 2022 and as a sustainable
+finance strategy tailored for European ...
+Commerzbank Group Partner and Director of the
+Boston. Consulting Group ...</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2021</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>D:20220222012612+05'30'</t>
+        </is>
+      </c>
+      <c r="H19" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I19" s="3" t="inlineStr">
+        <is>
+          <t>The document is titled 'HSBC Bank plc - Annual
+Report and Accounts 2021' and the snippet mentions
+'Annual Results 2021'. The document is likely to
+be an annual report.</t>
+        </is>
+      </c>
+      <c r="J19" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="30" customHeight="1">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>Universal Registration Document of Standard
+Chartered for 2021 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>Annual report 2022 | Standard Chartered</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>The tool is integrated with DHL's document
+tracking system as well as Lloyd's List
+Intelligence's vessel-tracking solution providing
+our clients and also ...</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr"/>
+      <c r="F20" s="3" t="inlineStr"/>
+      <c r="G20" s="3" t="inlineStr"/>
+      <c r="H20" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I20" s="3" t="inlineStr">
+        <is>
+          <t>The snippet contains the exact phrase 'Annual
+report 2022' which is a strong indicator of the
+document being an annual report.</t>
+        </is>
+      </c>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.sc.com/en/investors/financial-results/annual-report-2022/</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="30" customHeight="1">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>Universal Registration Document of Standard
+Chartered for 2021 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Bank plc - Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>Feb 21 2022 ... References to 'HSBC' 'HSBC Group'
+or. 'Group' within this document mean HSBC
+Holdings plc together with its subsidiaries. HSBC
+Bank plc is ...</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2021</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>D:20220222012612+05'30'</t>
+        </is>
+      </c>
+      <c r="H21" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I21" s="3" t="inlineStr">
+        <is>
+          <t>The document is titled 'HSBC Bank plc - Annual
+Report and Accounts 2021' and contains the words
+'Annual Report' in the snippet.</t>
+        </is>
+      </c>
+      <c r="J21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="30" customHeight="1">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>Universal Registration Document of Standard
+Chartered for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>Annual report 2022 | Standard Chartered</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>Annual report 2022 | Standard Chartered | Annual
+Report 2022 Connecting the world's most dynamic
+markets Read our annual report Full year results
+2022 Read ...</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr"/>
+      <c r="F22" s="3" t="inlineStr"/>
+      <c r="G22" s="3" t="inlineStr"/>
+      <c r="H22" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I22" s="3" t="inlineStr">
+        <is>
+          <t>The snippet contains the phrase 'Annual report
+2022' and 'Full year results 2022', which are
+strong indicators of an annual report.</t>
+        </is>
+      </c>
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.sc.com/en/investors/financial-results/annual-report-2022/</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="30" customHeight="1">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>Universal Registration Document of Standard
+Chartered for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>Introduction pages 1 to 29 - 04 March-16.FH10</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>Mar 3 2016 ... Standard Chartered Bank (Pakistan)
+Ltd. Points of interest. Standard Chartered is
+proud to be operating in Pakistan as the largest
+and oldest ...</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>Introduction pages 1 to 29 - 04 March-16.FH10</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr"/>
+      <c r="G23" s="3" t="inlineStr">
+        <is>
+          <t>D:20160307195606+05'00'</t>
+        </is>
+      </c>
+      <c r="H23" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I23" s="3" t="inlineStr">
+        <is>
+          <t>The snippet contains 'Standard Chartered Bank
+(Pakistan) Ltd. Points of interest. Standard
+Chartered is proud to be operating in Pakistan as
+the largest and oldest ...'</t>
+        </is>
+      </c>
+      <c r="J23" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.sc.com/global/av/pk-report-2015-final.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="30" customHeight="1">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>Universal Registration Document of Standard
+Chartered for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Bank plc - Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>Feb 21 2022 ... References to 'HSBC' 'HSBC Group'
+or. 'Group' within this document mean HSBC
+Holdings plc together with its subsidiaries. HSBC
+Bank plc is ...</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2021</t>
+        </is>
+      </c>
+      <c r="G24" s="3" t="inlineStr">
+        <is>
+          <t>D:20220222012612+05'30'</t>
+        </is>
+      </c>
+      <c r="H24" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I24" s="3" t="inlineStr">
+        <is>
+          <t>The document is titled 'HSBC Bank plc - Annual
+Report and Accounts 2021' and contains the words
+'Annual Report' in the snippet.</t>
+        </is>
+      </c>
+      <c r="J24" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="30" customHeight="1">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>Annual Information Form of HSBC for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>Feb 22 2022 ... ... form part of our ESG
+disclosures suite together with other ... pdf.
+Insurance. In 2021 our Insurance business which
+has life insurance ...</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2021</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>D:20220221132403Z</t>
+        </is>
+      </c>
+      <c r="H25" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I25" s="3" t="inlineStr">
+        <is>
+          <t>The document is titled 'HSBC Holdings plc Annual
+Report and Accounts 2021' and contains information
+about HSBC's financial performance and position,
+which is indicative of an annual report.</t>
+        </is>
+      </c>
+      <c r="J25" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-holdings-plc/220222-annual-report-and-accounts-2021.pdf?download=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="30" customHeight="1">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>Annual Information Form of HSBC for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>Results and announcements | HSBC Holdings plc</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc Form 20-F. PDF 9MB 471 pages.
+Add to download basket Add HSBC ... Annual Report.
+Download our Annual Report and Accounts 2022 and
+related ...</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr"/>
+      <c r="F26" s="3" t="inlineStr"/>
+      <c r="G26" s="3" t="inlineStr"/>
+      <c r="H26" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I26" s="3" t="inlineStr">
+        <is>
+          <t>The snippet contains 'Annual Report and Accounts
+2022' in the text, which is a strong indicator of
+the document being an annual report.</t>
+        </is>
+      </c>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/investors/results-and-announcements</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="30" customHeight="1">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>Annual Information Form of HSBC for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>ESG reporting centre | HSBC Holdings plc</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>Find detailed supplementary information on HSBC's
+processes and policies relating to environmental
+social and governance (ESG) performance.</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr"/>
+      <c r="F27" s="3" t="inlineStr"/>
+      <c r="G27" s="3" t="inlineStr"/>
+      <c r="H27" s="3" t="inlineStr">
+        <is>
+          <t>Sustainability Report</t>
+        </is>
+      </c>
+      <c r="I27" s="3" t="inlineStr">
+        <is>
+          <t>The snippet contains the words 'ESG' and
+'environmental social and governance (ESG)
+performance'. These words are related to the topic
+of Sustainability Report.</t>
+        </is>
+      </c>
+      <c r="J27" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/who-we-are/esg-and-responsible-business/esg-reporting-centre</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="30" customHeight="1">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>Annual Information Form of HSBC for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Bank plc - Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>Feb 21 2022 ... Page. Strategic Report.
+Highlights. 2. Key themes of 2021. 3. Key
+financial metrics. 3. About HSBC Group. 4. Purpose
+and strategy.</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="F28" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2021</t>
+        </is>
+      </c>
+      <c r="G28" s="3" t="inlineStr">
+        <is>
+          <t>D:20220222012612+05'30'</t>
+        </is>
+      </c>
+      <c r="H28" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I28" s="3" t="inlineStr">
+        <is>
+          <t>The document is titled 'HSBC Bank plc - Annual
+Report and Accounts 2021' and contains information
+about HSBC Group's purpose and strategy, key
+financial metrics, and key themes of 2021. The
+document is likely an annual report.</t>
+        </is>
+      </c>
+      <c r="J28" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="30" customHeight="1">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>Annual Information Form of HSBC for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>The Hongkong and Shanghai Banking Corporation
+Limited - Annual ...</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>Feb 22 2022 ... within the Annual Report and
+Accounts 2021 of HSBC Holdings plc. The ...
+information and we do not and will not express any
+form of assurance ...</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>The Hongkong and Shanghai Banking Corporation
+Limited - Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="G29" s="3" t="inlineStr">
+        <is>
+          <t>D:20220221201520+08'00'</t>
+        </is>
+      </c>
+      <c r="H29" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I29" s="3" t="inlineStr">
+        <is>
+          <t>The snippet contains the text "Annual Report and
+Accounts 2021", which is a strong indicator that
+the document is an annual report.</t>
+        </is>
+      </c>
+      <c r="J29" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="30" customHeight="1">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>Annual Information Form of HSBC for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Bank Middle East Limited Annual Report and
+Accounts 2021</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>Feb 22 2022 ... In aggregate the audit work
+performed across the locations above provided us
+with the audit evidence required to form an
+opinion on the group ...</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Bank Middle East Limited Annual Report and
+Accounts 2021</t>
+        </is>
+      </c>
+      <c r="F30" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2021</t>
+        </is>
+      </c>
+      <c r="G30" s="3" t="inlineStr">
+        <is>
+          <t>D:20220221174857Z</t>
+        </is>
+      </c>
+      <c r="H30" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I30" s="3" t="inlineStr">
+        <is>
+          <t>The document is titled 'HSBC Bank Middle East
+Limited Annual Report and Accounts 2021' and
+contains information about the company's financial
+performance and position.</t>
+        </is>
+      </c>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-middle-east-limited/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="30" customHeight="1">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>Annual Information Form of HSBC for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc Strategic Report 2021</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>Feb 22 2022 ... We have published our thermal coal
+phase-out policy and have set targets to reduce
+our on-balance sheet financed emissions of two
+priority ...</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>Strategic Report 2021</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2021</t>
+        </is>
+      </c>
+      <c r="G31" s="3" t="inlineStr">
+        <is>
+          <t>D:20220221101242Z</t>
+        </is>
+      </c>
+      <c r="H31" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I31" s="3" t="inlineStr">
+        <is>
+          <t>The document is titled 'HSBC Holdings plc
+Strategic Report 2021' and contains information
+about the company's financial performance and
+strategy. The snippet mentions the company's
+thermal coal phase-out policy and targets to
+reduce its on-balance sheet financed emissions,
+which is an indication that the document contains
+information related to the topic of
+sustainability.</t>
+        </is>
+      </c>
+      <c r="J31" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-holdings-plc/220222-strategic-report-2021.pdf?download=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="30" customHeight="1">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>Annual Information Form of HSBC for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>Environmental social and governance review</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>Feb 21 2023 ... Consistent with the scope of
+financial information presented in our Annual
+Report and Accounts the ESG review covers the
+operations of HSBC ...</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>Environmental social and governance review</t>
+        </is>
+      </c>
+      <c r="F32" s="3" t="inlineStr">
+        <is>
+          <t>Environmental social and governance</t>
+        </is>
+      </c>
+      <c r="G32" s="3" t="inlineStr">
+        <is>
+          <t>D:20230220181710Z</t>
+        </is>
+      </c>
+      <c r="H32" s="3" t="inlineStr">
+        <is>
+          <t>Sustainability Report</t>
+        </is>
+      </c>
+      <c r="I32" s="3" t="inlineStr">
+        <is>
+          <t>The snippet contains the words 'Environmental
+social and governance review'. The ESG review
+covers the operations of HSBC and is consistent
+with the scope of financial information presented
+in the Annual Report and Accounts.</t>
+        </is>
+      </c>
+      <c r="J32" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/annual/pdfs/hsbc-holdings-plc/230221-esg-review-2022.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="30" customHeight="1">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>Annual Information Form of HSBC for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc Strategic Report 2020</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>Feb 23 2021 ... Today we also announced that Laura
+Cha will step down from the Board immediately
+after our 2021 Annual General Meeting. ('AGM') in
+May. I ...</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc Strategic Report 2020</t>
+        </is>
+      </c>
+      <c r="F33" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2020</t>
+        </is>
+      </c>
+      <c r="G33" s="3" t="inlineStr">
+        <is>
+          <t>D:20210223104527Z</t>
+        </is>
+      </c>
+      <c r="H33" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I33" s="3" t="inlineStr">
+        <is>
+          <t>The document is titled 'HSBC Holdings plc
+Strategic Report 2020' and contains information
+about the company's financial performance and
+strategy. The snippet mentions the company's
+Annual General Meeting (AGM) and the resignation
+of a board member, which are topics typically
+covered in an annual report.</t>
+        </is>
+      </c>
+      <c r="J33" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2020/annual/pdfs/hsbc-holdings-plc/210223-strategic-report-2020.pdf?download=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="30" customHeight="1">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>Annual Information Form of HSBC for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>Financial Statements - 31 December 2021</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>Dec 31 2021 ... the Corporate Governance Report of
+HSBC Bank Malaysia Berhad (the ... information and
+we do not express any form of assurance conclusion
+thereon.</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>Financial Statements - 31 December 2021</t>
+        </is>
+      </c>
+      <c r="F34" s="3" t="inlineStr">
+        <is>
+          <t>Financial and regulatory reports</t>
+        </is>
+      </c>
+      <c r="G34" s="3" t="inlineStr">
+        <is>
+          <t>D:20220218173806+08'00'</t>
+        </is>
+      </c>
+      <c r="H34" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I34" s="3" t="inlineStr">
+        <is>
+          <t>The document is titled 'Financial Statements - 31
+December 2021' and contains the phrase 'Annual
+Information Form'. The snippet also mentions
+'Corporate Governance Report' which is a synonym
+for 'Leadership and Corporate Governance'.</t>
+        </is>
+      </c>
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2021/financial-and-regulatory-reports/220420-hbmy-financial-statements-31-december-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="30" customHeight="1">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>Annual Information Form of HSBC for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc Interim Report 2022</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>Aug 1 2022 ... Read more on our purpose and values
+on pages 4 and 15 of our Annual Report and
+Accounts 2021. Opening up a world of opportunity.
+Key themes.</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="inlineStr">
+        <is>
+          <t>Interim Report 2022</t>
+        </is>
+      </c>
+      <c r="F35" s="3" t="inlineStr">
+        <is>
+          <t>Interim Results 2022</t>
+        </is>
+      </c>
+      <c r="G35" s="3" t="inlineStr">
+        <is>
+          <t>D:20220731111324Z</t>
+        </is>
+      </c>
+      <c r="H35" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I35" s="3" t="inlineStr">
+        <is>
+          <t>The snippet contains the text "Read more on our
+purpose and values on pages 4 and 15 of our Annual
+Report and Accounts 2021." This indicates that the
+PDF is likely an annual report.</t>
+        </is>
+      </c>
+      <c r="J35" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/interim/pdfs/hsbc-holdings-plc/220801-interim-report-2022.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="30" customHeight="1">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>Annual Information Form of HSBC for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>ESG Datapack 2021 (Excel)</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>Feb 22 2022 ... ... Form 6-Ks and the 2021 Form
+20-F. 000000_x000D_#000000PUBLIC. WEF ... HSBC
+Holdings plc Annual Report and Accounts 2021 ---&gt;
+Report of the ...</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr"/>
+      <c r="F36" s="3" t="inlineStr"/>
+      <c r="G36" s="3" t="inlineStr"/>
+      <c r="H36" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I36" s="3" t="inlineStr">
+        <is>
+          <t>The snippet contains 'HSBC Holdings plc Annual
+Report and Accounts 2021'. 'HSBC Holdings plc' is
+the company name and '2021' is the year. 'Annual
+Report' is one of the topics.</t>
+        </is>
+      </c>
+      <c r="J36" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-holdings-plc/220222-esg-datapack-2021-excel.xlsx?download=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="30" customHeight="1">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>Annual Information Form of HSBC for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>210223-presentation-to-investors-and-analysts.pdf</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>Feb 23 2021 ... Client revenue is based on HSBC
+internal client management information and differs
+from reported revenue. ... 2021 (the “2020 Form
+20-F”).</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t>Presentation to Investors and Analysts</t>
+        </is>
+      </c>
+      <c r="F37" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2020</t>
+        </is>
+      </c>
+      <c r="G37" s="3" t="inlineStr">
+        <is>
+          <t>D:20210611145817+01'00'</t>
+        </is>
+      </c>
+      <c r="H37" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I37" s="3" t="inlineStr">
+        <is>
+          <t>The document is titled 'Presentation to Investors
+and Analysts' and contains information about
+HSBC's financial performance in 2020. The document
+is also referred to as an 'Annual Information
+Form' in the metadata.</t>
+        </is>
+      </c>
+      <c r="J37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2020/annual/pdfs/hsbc-holdings-plc/210223-presentation-to-investors-and-analysts.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="30" customHeight="1">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>Annual Information Form of HSBC for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>According to the 2011 HSBC Annual Report and
+Accounts profit ...</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>We have audited the accompanying separate
+financial statements of HSBC Bank - Egypt (S.A.E)
+which comprise the separate balance sheet as at 31
+December 2011 and ...</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>According to the 2011 HSBC Annual Report and
+Accounts profit before tax rose 20 per cent while
+total deposits rose 6 per cent at year-end.</t>
+        </is>
+      </c>
+      <c r="F38" s="3" t="inlineStr">
+        <is>
+          <t>2011 HSBC Annual Report and Accounts</t>
+        </is>
+      </c>
+      <c r="G38" s="3" t="inlineStr">
+        <is>
+          <t>D:20120902125026Z</t>
+        </is>
+      </c>
+      <c r="H38" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I38" s="3" t="inlineStr">
+        <is>
+          <t>The snippet contains the text 'According to the
+2011 HSBC Annual Report and Accounts profit before
+tax rose 20 per cent while total deposits rose 6
+per cent at year-end', which indicates that the
+document is an annual report.</t>
+        </is>
+      </c>
+      <c r="J38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2011/20111231-hsbc-annual-report-and-accounts-english.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="30" customHeight="1">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>Annual Information Form of HSBC for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>Notice of 2019 Annual General Meeting - English -
+HSBC Group</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>Mar 6 2019 ... Information about the 2019 Annual
+General Meeting ... of Hong Kong Limited for the
+purpose of giving information with regard to HSBC
+Holdings plc.</t>
+        </is>
+      </c>
+      <c r="E39" s="3" t="inlineStr">
+        <is>
+          <t>Notice of 2019 Annual General Meeting -
+Announcement made to the HK stock exchange -
+English</t>
+        </is>
+      </c>
+      <c r="F39" s="3" t="inlineStr">
+        <is>
+          <t>Stock exchange announcement</t>
+        </is>
+      </c>
+      <c r="G39" s="3" t="inlineStr">
+        <is>
+          <t>D:20190225205638Z</t>
+        </is>
+      </c>
+      <c r="H39" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I39" s="3" t="inlineStr">
+        <is>
+          <t>The document is an Annual Information Form for
+HSBC for 2021, which falls under the definition of
 an Annual Report.</t>
         </is>
       </c>
-      <c r="J6" s="3" t="inlineStr">
+      <c r="J39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="30" customHeight="1">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>Annual Information Form of HSBC for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc Pillar 3 Disclosures at 30 June
+2020</t>
+        </is>
+      </c>
+      <c r="D40" s="3" t="inlineStr">
+        <is>
+          <t>Jun 30 2020 ... the Annual Report and Accounts
+2019. Table 26: Performing and non-performing
+exposures and related provisions. Gross carrying
+amount/nominal ...</t>
+        </is>
+      </c>
+      <c r="E40" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc Pillar 3 Disclosures at 30 June
+2020</t>
+        </is>
+      </c>
+      <c r="F40" s="3" t="inlineStr">
+        <is>
+          <t>Interim Results 2019</t>
+        </is>
+      </c>
+      <c r="G40" s="3" t="inlineStr">
+        <is>
+          <t>D:20200807230100+05'30'</t>
+        </is>
+      </c>
+      <c r="H40" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I40" s="3" t="inlineStr">
+        <is>
+          <t>The document is titled 'HSBC Holdings plc Pillar 3
+Disclosures at 30 June 2020' and contains
+information about HSBC's financial performance for
+the first half of 2020. The document is also
+referred to as an 'Annual Report and Accounts
+2019' in the snippet, which further supports the
+classification as an Annual Report.</t>
+        </is>
+      </c>
+      <c r="J40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2020/august/sea-200810-hsbc-holdings-q2-2020-pillar-3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="30" customHeight="1">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>Annual Information Form of HSBC for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>2018 Interim results - Highlights - English - HSBC
+Group</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>Aug 6 2018 ... There have been no material changes
+to the information disclosed in the Annual Report
+and Accounts 2017 in respect of the remuneration
+of ...</t>
+        </is>
+      </c>
+      <c r="E41" s="3" t="inlineStr">
+        <is>
+          <t>2018 Interim results - Highlights - Announcement
+made to the HK stock exchange - English</t>
+        </is>
+      </c>
+      <c r="F41" s="3" t="inlineStr">
+        <is>
+          <t>Stock exchange announcement</t>
+        </is>
+      </c>
+      <c r="G41" s="3" t="inlineStr">
+        <is>
+          <t>D:20180801093121+08'00'</t>
+        </is>
+      </c>
+      <c r="H41" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I41" s="3" t="inlineStr">
+        <is>
+          <t>The snippet contains the text "There have been no
+material changes to the information disclosed in
+the Annual Report and Accounts 2017". This
+indicates that the PDF is likely to be an annual
+report.</t>
+        </is>
+      </c>
+      <c r="J41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2018/August/sea-180806-e-2018-interim-results-highlights.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="30" customHeight="1">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-K of Columbia Bank for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>The Hongkong and Shanghai Banking Corporation
+Limited - Annual ...</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>Feb 22 2022 ... A Chinese translation of the
+Annual Report and Accounts 2021 is available upon
+request from: Communications (Asia) Level 32. HSBC
+Main ...</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t>The Hongkong and Shanghai Banking Corporation
+Limited - Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="F42" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="G42" s="3" t="inlineStr">
+        <is>
+          <t>D:20220221201520+08'00'</t>
+        </is>
+      </c>
+      <c r="H42" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I42" s="3" t="inlineStr">
+        <is>
+          <t>The snippet contains the text "Annual Report and
+Accounts 2021", which is a strong indicator that
+the document is an annual report.</t>
+        </is>
+      </c>
+      <c r="J42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="30" customHeight="1">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-K of Columbia Bank for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Bank Middle East Limited Annual Report and
+Accounts 2021</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>Feb 22 2022 ... ... 2022 but to move slowly and to
+keep monetary policy accommodative ... The bank's
+regulatory capital is divided into two tiers: •
+Tier 1 ...</t>
+        </is>
+      </c>
+      <c r="E43" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Bank Middle East Limited Annual Report and
+Accounts 2021</t>
+        </is>
+      </c>
+      <c r="F43" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2021</t>
+        </is>
+      </c>
+      <c r="G43" s="3" t="inlineStr">
+        <is>
+          <t>D:20220221174857Z</t>
+        </is>
+      </c>
+      <c r="H43" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I43" s="3" t="inlineStr">
+        <is>
+          <t>The document is titled 'HSBC Bank Middle East
+Limited Annual Report and Accounts 2021' and
+contains information about the bank's financial
+performance and position, which is indicative of
+an annual report.</t>
+        </is>
+      </c>
+      <c r="J43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-middle-east-limited/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="30" customHeight="1">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-K of Columbia Bank for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc Interim Report 2022</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>Aug 1 2022 ... Read more on page 10. Delivery
+against our financial targets. Return on average
+tangible equity. (annualised). 9.9%.</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>Interim Report 2022</t>
+        </is>
+      </c>
+      <c r="F44" s="3" t="inlineStr">
+        <is>
+          <t>Interim Results 2022</t>
+        </is>
+      </c>
+      <c r="G44" s="3" t="inlineStr">
+        <is>
+          <t>D:20220731111324Z</t>
+        </is>
+      </c>
+      <c r="H44" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I44" s="3" t="inlineStr">
+        <is>
+          <t>The document is titled 'HSBC Holdings plc Interim
+Report 2022' and contains financial information
+such as 'Return on average tangible equity' and
+'9.9%'. Interim Report is a kind of Annual report.</t>
+        </is>
+      </c>
+      <c r="J44" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/interim/pdfs/hsbc-holdings-plc/220801-interim-report-2022.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="30" customHeight="1">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-K of Columbia Bank for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>Notice of 2019 Annual General Meeting -
+Announcement made to ...</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t>Mar 6 2019 ... Her non-executive role with HSBC
+Holdings plc including its subsidiaries. The
+Hongkong and Shanghai Banking Corporation Limited
+and Hang Seng ...</t>
+        </is>
+      </c>
+      <c r="E45" s="3" t="inlineStr">
+        <is>
+          <t>Notice of 2019 Annual General Meeting -
+Announcement made to the HK stock exchange -
+English</t>
+        </is>
+      </c>
+      <c r="F45" s="3" t="inlineStr">
+        <is>
+          <t>Stock exchange announcement</t>
+        </is>
+      </c>
+      <c r="G45" s="3" t="inlineStr">
+        <is>
+          <t>D:20190225205638Z</t>
+        </is>
+      </c>
+      <c r="H45" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I45" s="3" t="inlineStr">
+        <is>
+          <t>The snippet contains the text "Notice of 2019
+Annual General Meeting", which is a strong
+indicator that the document is an annual report.</t>
+        </is>
+      </c>
+      <c r="J45" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="30" customHeight="1">
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of HSBC for 2021
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>Results and announcements | HSBC Holdings plc</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>PDF 2MB 56 pages. Add to ... Visit our full
+archive of financial results and other regulatory
+documents relating to HSBC Holdings plc and its
+subsidiaries.</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="inlineStr"/>
+      <c r="F46" s="3" t="inlineStr"/>
+      <c r="G46" s="3" t="inlineStr"/>
+      <c r="H46" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I46" s="3" t="inlineStr">
+        <is>
+          <t>The snippet contains 'financial results and other
+regulatory documents', which are strong indicators
+of an Annual Report.</t>
+        </is>
+      </c>
+      <c r="J46" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/investors/results-and-announcements</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="30" customHeight="1">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of HSBC for 2021
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>Feb 22 2022 ... ... regulatory environments have
+become increasingly fragmented through ... pdf.
+Insurance. In 2021 our Insurance business which
+has life.</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="F47" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2021</t>
+        </is>
+      </c>
+      <c r="G47" s="3" t="inlineStr">
+        <is>
+          <t>D:20220221132403Z</t>
+        </is>
+      </c>
+      <c r="H47" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I47" s="3" t="inlineStr">
+        <is>
+          <t>The document is titled 'HSBC Holdings plc Annual
+Report and Accounts 2021' and contains the words
+'Annual Report' in the snippet.</t>
+        </is>
+      </c>
+      <c r="J47" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-holdings-plc/220222-annual-report-and-accounts-2021.pdf?download=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="30" customHeight="1">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of HSBC for 2021
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>The Hongkong and Shanghai Banking Corporation
+Limited - Annual ...</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="inlineStr">
+        <is>
+          <t>Feb 22 2022 ... within the Annual Report and
+Accounts 2021 of HSBC Holdings plc. The ... March
+2021 a new Regulatory Conduct Strategic Delivery
+and.</t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="inlineStr">
+        <is>
+          <t>The Hongkong and Shanghai Banking Corporation
+Limited - Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="F48" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="G48" s="3" t="inlineStr">
+        <is>
+          <t>D:20220221201520+08'00'</t>
+        </is>
+      </c>
+      <c r="H48" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I48" s="3" t="inlineStr">
+        <is>
+          <t>The snippet contains the text "Annual Report and
+Accounts 2021", which is a strong indicator that
+the document is an annual report.</t>
+        </is>
+      </c>
+      <c r="J48" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="30" customHeight="1">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of HSBC for 2021
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Bank plc - Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="D49" s="3" t="inlineStr">
+        <is>
+          <t>Feb 21 2022 ... HSBC Bank plc is exempt from
+publishing information required by. The Capital
+Requirements Country-by-Country Reporting.
+Regulations 2013 as ...</t>
+        </is>
+      </c>
+      <c r="E49" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="F49" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2021</t>
+        </is>
+      </c>
+      <c r="G49" s="3" t="inlineStr">
+        <is>
+          <t>D:20220222012612+05'30'</t>
+        </is>
+      </c>
+      <c r="H49" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I49" s="3" t="inlineStr">
+        <is>
+          <t>The snippet contains 'Annual Report and Accounts
+2021', which is a strong indicator of an Annual
+Report.</t>
+        </is>
+      </c>
+      <c r="J49" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="30" customHeight="1">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of HSBC for 2021
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>Environmental social and governance review</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>Feb 21 2023 ... HSBC Holdings plc is responsible
+for preparation of the ESG information and all the
+supporting records including selecting appropriate
+...</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>Environmental social and governance review</t>
+        </is>
+      </c>
+      <c r="F50" s="3" t="inlineStr">
+        <is>
+          <t>Environmental social and governance</t>
+        </is>
+      </c>
+      <c r="G50" s="3" t="inlineStr">
+        <is>
+          <t>D:20230220181710Z</t>
+        </is>
+      </c>
+      <c r="H50" s="3" t="inlineStr">
+        <is>
+          <t>Sustainability Report</t>
+        </is>
+      </c>
+      <c r="I50" s="3" t="inlineStr">
+        <is>
+          <t>The snippet contains the words 'Environmental
+social and governance review' and 'ESG
+information', which are strong indicators of a
+Sustainability Report.</t>
+        </is>
+      </c>
+      <c r="J50" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/annual/pdfs/hsbc-holdings-plc/230221-esg-review-2022.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="30" customHeight="1">
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of HSBC for 2021
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc Strategic Report 2021</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>Feb 22 2022 ... term sector-based targets;
+publishing a policy to phase out the ... of this
+Strategic Report 2021 or Annual Report and
+Accounts 2021 should ...</t>
+        </is>
+      </c>
+      <c r="E51" s="3" t="inlineStr">
+        <is>
+          <t>Strategic Report 2021</t>
+        </is>
+      </c>
+      <c r="F51" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2021</t>
+        </is>
+      </c>
+      <c r="G51" s="3" t="inlineStr">
+        <is>
+          <t>D:20220221101242Z</t>
+        </is>
+      </c>
+      <c r="H51" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I51" s="3" t="inlineStr">
+        <is>
+          <t>The document is titled 'HSBC Holdings plc
+Strategic Report 2021' and is published by HSBC.
+Strategic Report 2021 is mentioned in the SNIPPET
+under METADATA. Strategic Report 2021 is a synonym
+for Annual Report.</t>
+        </is>
+      </c>
+      <c r="J51" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-holdings-plc/220222-strategic-report-2021.pdf?download=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="30" customHeight="1">
+      <c r="A52" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of HSBC for 2021
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Bank Middle East Limited Annual Report and
+Accounts 2021</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t>Feb 22 2022 ... HSBC met regulatory milestones to
+cease issuance of new Libor contracts for the
+demising benchmarks through 2021 and expects to
+meet ...</t>
+        </is>
+      </c>
+      <c r="E52" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Bank Middle East Limited Annual Report and
+Accounts 2021</t>
+        </is>
+      </c>
+      <c r="F52" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2021</t>
+        </is>
+      </c>
+      <c r="G52" s="3" t="inlineStr">
+        <is>
+          <t>D:20220221174857Z</t>
+        </is>
+      </c>
+      <c r="H52" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I52" s="3" t="inlineStr">
+        <is>
+          <t>The document is titled 'HSBC Bank Middle East
+Limited Annual Report and Accounts 2021' and
+contains the words 'Annual Report' in the snippet,
+which is a strong indicator that the document is
+an annual report.</t>
+        </is>
+      </c>
+      <c r="J52" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-middle-east-limited/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="30" customHeight="1">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of HSBC for 2021
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>210223-presentation-to-investors-and-analysts.pdf</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="inlineStr">
+        <is>
+          <t>Feb 23 2021 ... equity interest in HSBC Life China
+subject to regulatory approvals ... in accordance
+with SEC rules and regulations (“Alternative
+Performance ...</t>
+        </is>
+      </c>
+      <c r="E53" s="3" t="inlineStr">
+        <is>
+          <t>Presentation to Investors and Analysts</t>
+        </is>
+      </c>
+      <c r="F53" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2020</t>
+        </is>
+      </c>
+      <c r="G53" s="3" t="inlineStr">
+        <is>
+          <t>D:20210611145817+01'00'</t>
+        </is>
+      </c>
+      <c r="H53" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I53" s="3" t="inlineStr">
+        <is>
+          <t>The document is titled 'Presentation to Investors
+and Analysts' and contains information on HSBC's
+financial performance. The snippet mentions
+'equity interest in HSBC Life China subject to
+regulatory approvals' and 'in accordance with SEC
+rules and regulations', which are indicative of an
+annual report.</t>
+        </is>
+      </c>
+      <c r="J53" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2020/annual/pdfs/hsbc-holdings-plc/210223-presentation-to-investors-and-analysts.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="30" customHeight="1">
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of HSBC for 2021
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc Strategic Report 2020</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="inlineStr">
+        <is>
+          <t>Feb 23 2021 ... These include the regulatory
+transitional arrangements for IFRS 9 'Financial
+Instruments' which are explained further on page
+173 of our Annual ...</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc Strategic Report 2020</t>
+        </is>
+      </c>
+      <c r="F54" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2020</t>
+        </is>
+      </c>
+      <c r="G54" s="3" t="inlineStr">
+        <is>
+          <t>D:20210223104527Z</t>
+        </is>
+      </c>
+      <c r="H54" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I54" s="3" t="inlineStr">
+        <is>
+          <t>The snippet contains 'These include the regulatory
+transitional arrangements for IFRS 9 'Financial
+Instruments' which are explained further on page
+173 of our Annual ...'</t>
+        </is>
+      </c>
+      <c r="J54" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2020/annual/pdfs/hsbc-holdings-plc/210223-strategic-report-2020.pdf?download=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="30" customHeight="1">
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of HSBC for 2021
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>Financial Statements - 31 December 2021</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>Dec 31 2021 ... His interest in the Bank's related
+corporation is as disclosed in the Directors'
+Report on page 18. 2. Page 5. HSBC BANK MALAYSIA
+BERHAD. ( ...</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="inlineStr">
+        <is>
+          <t>Financial Statements - 31 December 2021</t>
+        </is>
+      </c>
+      <c r="F55" s="3" t="inlineStr">
+        <is>
+          <t>Financial and regulatory reports</t>
+        </is>
+      </c>
+      <c r="G55" s="3" t="inlineStr">
+        <is>
+          <t>D:20220218173806+08'00'</t>
+        </is>
+      </c>
+      <c r="H55" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I55" s="3" t="inlineStr">
+        <is>
+          <t>The document is titled 'Financial Statements - 31
+December 2021' and contains information about
+HSBC's financial performance for the year 2021.
+The document is likely to be an annual report or a
+financial statement, which falls under the
+category of 'Annual Report' in the provided list
+of topics.</t>
+        </is>
+      </c>
+      <c r="J55" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2021/financial-and-regulatory-reports/220420-hbmy-financial-statements-31-december-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="30" customHeight="1">
+      <c r="A56" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of HSBC for 2021
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B56" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc Interim Report 2022</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>Aug 1 2022 ... Read more on our purpose and values
+on pages 4 and 15 of our Annual Report and
+Accounts 2021. Opening up a world of opportunity.
+Key themes.</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>Interim Report 2022</t>
+        </is>
+      </c>
+      <c r="F56" s="3" t="inlineStr">
+        <is>
+          <t>Interim Results 2022</t>
+        </is>
+      </c>
+      <c r="G56" s="3" t="inlineStr">
+        <is>
+          <t>D:20220731111324Z</t>
+        </is>
+      </c>
+      <c r="H56" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I56" s="3" t="inlineStr">
+        <is>
+          <t>The snippet contains 'Annual Report and Accounts
+2021', which is a strong indicator of an Annual
+Report.</t>
+        </is>
+      </c>
+      <c r="J56" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/interim/pdfs/hsbc-holdings-plc/220801-interim-report-2022.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="30" customHeight="1">
+      <c r="A57" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of HSBC for 2021
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B57" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="C57" s="3" t="inlineStr">
+        <is>
+          <t>Notice of 2019 Annual General Meeting - English -
+HSBC Group</t>
+        </is>
+      </c>
+      <c r="D57" s="3" t="inlineStr">
+        <is>
+          <t>Mar 6 2019 ... Directors' remuneration policy on
+pages 175 to 184 of the Annual Report &amp; Accounts).
+... section-12-January-2018.pdf. External legal
+advisers have ...</t>
+        </is>
+      </c>
+      <c r="E57" s="3" t="inlineStr">
+        <is>
+          <t>Notice of 2019 Annual General Meeting -
+Announcement made to the HK stock exchange -
+English</t>
+        </is>
+      </c>
+      <c r="F57" s="3" t="inlineStr">
+        <is>
+          <t>Stock exchange announcement</t>
+        </is>
+      </c>
+      <c r="G57" s="3" t="inlineStr">
+        <is>
+          <t>D:20190225205638Z</t>
+        </is>
+      </c>
+      <c r="H57" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I57" s="3" t="inlineStr">
+        <is>
+          <t>The snippet contains the text
+"section-12-January-2018.pdf", which is a
+reference to the Annual Report &amp; Accounts. The
+snippet also mentions the "Directors' remuneration
+policy on pages 175 to 184 of the Annual Report &amp;
+Accounts", which further supports the
+classification of this document as an Annual
+Report.</t>
+        </is>
+      </c>
+      <c r="J57" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="30" customHeight="1">
+      <c r="A58" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of HSBC for 2021
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B58" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="C58" s="3" t="inlineStr">
+        <is>
+          <t>According to the 2011 HSBC Annual Report and
+Accounts profit ...</t>
+        </is>
+      </c>
+      <c r="D58" s="3" t="inlineStr">
+        <is>
+          <t>Little could be anticipated at the time as to what
+was to hit Egypt in 2011 when truly “challenging
+circumstances” hit the economy and the financial
+sector.</t>
+        </is>
+      </c>
+      <c r="E58" s="3" t="inlineStr">
+        <is>
+          <t>According to the 2011 HSBC Annual Report and
+Accounts profit before tax rose 20 per cent while
+total deposits rose 6 per cent at year-end.</t>
+        </is>
+      </c>
+      <c r="F58" s="3" t="inlineStr">
+        <is>
+          <t>2011 HSBC Annual Report and Accounts</t>
+        </is>
+      </c>
+      <c r="G58" s="3" t="inlineStr">
+        <is>
+          <t>D:20120902125026Z</t>
+        </is>
+      </c>
+      <c r="H58" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I58" s="3" t="inlineStr">
+        <is>
+          <t>The snippet contains the exact phrase '2011 HSBC
+Annual Report and Accounts'</t>
+        </is>
+      </c>
+      <c r="J58" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2011/20111231-hsbc-annual-report-and-accounts-english.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="30" customHeight="1">
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of Standard Chartered
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>Annual report 2022 | Standard Chartered</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="inlineStr">
+        <is>
+          <t>Annual report 2022 | Standard Chartered | Annual
+Report 2022 Connecting the world's most dynamic
+markets Read our annual report Full year results
+2022 Read ...</t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="inlineStr"/>
+      <c r="F59" s="3" t="inlineStr"/>
+      <c r="G59" s="3" t="inlineStr"/>
+      <c r="H59" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I59" s="3" t="inlineStr">
+        <is>
+          <t>The snippet contains the phrase 'Annual report
+2022' and 'Full year results 2022', which are
+strong indicators of an annual report.</t>
+        </is>
+      </c>
+      <c r="J59" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.sc.com/en/investors/financial-results/annual-report-2022/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="30" customHeight="1">
+      <c r="A60" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of Standard Chartered
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B60" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C60" s="3" t="inlineStr">
+        <is>
+          <t>pk-annual-report-2016.pdf</t>
+        </is>
+      </c>
+      <c r="D60" s="3" t="inlineStr">
+        <is>
+          <t>Mar 2 2017 ... Standard Chartered Bank [Pakistan)
+Ltd. Points of interest. •. Standard Chartered is
+proud to be operating in Pakistan as the largest
+and oldest ...</t>
+        </is>
+      </c>
+      <c r="E60" s="3" t="inlineStr">
+        <is>
+          <t>Page numbers 1-31.FH10</t>
+        </is>
+      </c>
+      <c r="F60" s="3" t="inlineStr"/>
+      <c r="G60" s="3" t="inlineStr">
+        <is>
+          <t>D:20170306111255+05'00'</t>
+        </is>
+      </c>
+      <c r="H60" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I60" s="3" t="inlineStr">
+        <is>
+          <t>The snippet contains 'Standard Chartered Bank
+[Pakistan) Ltd. Points of interest. •. Standard
+Chartered is proud to be operating in Pakistan as
+the largest and oldest ...'</t>
+        </is>
+      </c>
+      <c r="J60" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.sc.com/global/av/pk-annual-report-2016.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="30" customHeight="1">
+      <c r="A61" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of Standard Chartered
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C61" s="3" t="inlineStr">
+        <is>
+          <t>The Hongkong and Shanghai Banking Corporation
+Limited - Annual ...</t>
+        </is>
+      </c>
+      <c r="D61" s="3" t="inlineStr">
+        <is>
+          <t>Feb 22 2022 ... A Chinese translation of the
+Annual Report and Accounts 2021 is available upon
+request from: Communications (Asia) Level 32. HSBC
+Main ...</t>
+        </is>
+      </c>
+      <c r="E61" s="3" t="inlineStr">
+        <is>
+          <t>The Hongkong and Shanghai Banking Corporation
+Limited - Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="F61" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="G61" s="3" t="inlineStr">
+        <is>
+          <t>D:20220221201520+08'00'</t>
+        </is>
+      </c>
+      <c r="H61" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I61" s="3" t="inlineStr">
+        <is>
+          <t>The snippet contains the text "Annual Report and
+Accounts 2021", which is a strong indicator that
+the document is an annual report.</t>
+        </is>
+      </c>
+      <c r="J61" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="30" customHeight="1">
+      <c r="A62" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of Standard Chartered
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B62" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C62" s="3" t="inlineStr">
+        <is>
+          <t>Introduction pages 1 to 29 - 04 March-16.FH10</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t>Mar 3 2016 ... ... Standard Chartered Annual
+Report 2015. NOTICE OF ANNUAL GENERAL MEETING.
+Notes: 1. The Share Transfer Books of the Bank
+will remain closed ...</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>Introduction pages 1 to 29 - 04 March-16.FH10</t>
+        </is>
+      </c>
+      <c r="F62" s="3" t="inlineStr"/>
+      <c r="G62" s="3" t="inlineStr">
+        <is>
+          <t>D:20160307195606+05'00'</t>
+        </is>
+      </c>
+      <c r="H62" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I62" s="3" t="inlineStr">
+        <is>
+          <t>The snippet contains 'Standard Chartered Annual
+Report 2015' and 'NOTICE OF ANNUAL GENERAL
+MEETING', which are strong indicators of an annual
+report.</t>
+        </is>
+      </c>
+      <c r="J62" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.sc.com/global/av/pk-report-2015-final.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="30" customHeight="1">
+      <c r="A63" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of Standard Chartered
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B63" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C63" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Bank plc - Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="D63" s="3" t="inlineStr">
+        <is>
+          <t>Feb 21 2022 ... HSBC Bank plc is exempt from
+publishing information required by. The Capital
+Requirements Country-by-Country Reporting.
+Regulations 2013 as ...</t>
+        </is>
+      </c>
+      <c r="E63" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="F63" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2021</t>
+        </is>
+      </c>
+      <c r="G63" s="3" t="inlineStr">
+        <is>
+          <t>D:20220222012612+05'30'</t>
+        </is>
+      </c>
+      <c r="H63" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I63" s="3" t="inlineStr">
+        <is>
+          <t>The document is titled 'HSBC Bank plc - Annual
+Report and Accounts 2021' and contains information
+required by The Capital Requirements
+Country-by-Country Reporting Regulations 2013.</t>
+        </is>
+      </c>
+      <c r="J63" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="30" customHeight="1">
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of Standard Chartered
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B64" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C64" s="3" t="inlineStr">
+        <is>
+          <t>ANNUAL REPORT</t>
+        </is>
+      </c>
+      <c r="D64" s="3" t="inlineStr">
+        <is>
+          <t>... including the Accounting. Standards issued by
+ICAI and provisions of Section 29 of the Banking
+Regulation Act1949 and circulars and. Page 62. 60
+...</t>
+        </is>
+      </c>
+      <c r="E64" s="3" t="inlineStr">
+        <is>
+          <t>cover.cdr</t>
+        </is>
+      </c>
+      <c r="F64" s="3" t="inlineStr"/>
+      <c r="G64" s="3" t="inlineStr">
+        <is>
+          <t>D:20201127181404+05'30'</t>
+        </is>
+      </c>
+      <c r="H64" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I64" s="3" t="inlineStr">
+        <is>
+          <t>The rationale behind this classification is that
+the PDF URL contains the term 'Annual Report' in
+its title, which is a synonym for the topic
+'Annual Report'.</t>
+        </is>
+      </c>
+      <c r="J64" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://prathamaupbank.com/Writereaddata/Downloads/Annaul%20Report%20FY%202019-20%20final%20complete%20report_compressed.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="30" customHeight="1">
+      <c r="A65" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 8-K of Commerzbank for 2021
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B65" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Bank plc - Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="inlineStr">
+        <is>
+          <t>Feb 21 2022 ... HSBC Bank plc is exempt from
+publishing information required by. The Capital
+Requirements Country-by-Country Reporting.
+Regulations 2013 as ...</t>
+        </is>
+      </c>
+      <c r="E65" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="F65" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2021</t>
+        </is>
+      </c>
+      <c r="G65" s="3" t="inlineStr">
+        <is>
+          <t>D:20220222012612+05'30'</t>
+        </is>
+      </c>
+      <c r="H65" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I65" s="3" t="inlineStr">
+        <is>
+          <t>The document is titled 'HSBC Bank plc - Annual
+Report and Accounts 2021' and contains information
+required by The Capital Requirements
+Country-by-Country Reporting Regulations 2013.</t>
+        </is>
+      </c>
+      <c r="J65" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="30" customHeight="1">
+      <c r="A66" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: Forms 3,4, and 5 of Standard
+Chartered for 2021 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B66" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" s="3" t="inlineStr">
+        <is>
+          <t>Annual report 2022 | Standard Chartered</t>
+        </is>
+      </c>
+      <c r="D66" s="3" t="inlineStr">
+        <is>
+          <t>Annual report 2022 | Standard Chartered | Annual
+Report 2022 Connecting the world's most dynamic
+markets Read our annual report Full year results
+2022 Read ...</t>
+        </is>
+      </c>
+      <c r="E66" s="3" t="inlineStr"/>
+      <c r="F66" s="3" t="inlineStr"/>
+      <c r="G66" s="3" t="inlineStr"/>
+      <c r="H66" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I66" s="3" t="inlineStr">
+        <is>
+          <t>The snippet contains the phrase 'Annual report
+2022' and 'Full year results 2022', which are
+strong indicators of an annual report.</t>
+        </is>
+      </c>
+      <c r="J66" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.sc.com/en/investors/financial-results/annual-report-2022/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" ht="30" customHeight="1">
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: Forms 3,4, and 5 of Standard
+Chartered for 2021 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C67" s="3" t="inlineStr">
+        <is>
+          <t>The Hongkong and Shanghai Banking Corporation
+Limited - Annual ...</t>
+        </is>
+      </c>
+      <c r="D67" s="3" t="inlineStr">
+        <is>
+          <t>Feb 22 2022 ... executive Director with effect
+from 4 June 2021. At the conclusion of ... from 5
+October 2021. Save for the above all the Directors
+served.</t>
+        </is>
+      </c>
+      <c r="E67" s="3" t="inlineStr">
+        <is>
+          <t>The Hongkong and Shanghai Banking Corporation
+Limited - Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="F67" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="G67" s="3" t="inlineStr">
+        <is>
+          <t>D:20220221201520+08'00'</t>
+        </is>
+      </c>
+      <c r="H67" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I67" s="3" t="inlineStr">
+        <is>
+          <t>The snippet contains the text "Annual Report and
+Accounts 2021", which is a strong indicator that
+the document is an annual report.</t>
+        </is>
+      </c>
+      <c r="J67" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="30" customHeight="1">
+      <c r="A68" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: Forms 3,4, and 5 of Standard
+Chartered for 2021 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B68" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C68" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Bank plc - Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="D68" s="3" t="inlineStr">
+        <is>
+          <t>Feb 21 2022 ... Page. Strategic Report.
+Highlights. 2. Key themes of 2021. 3. Key
+financial metrics. 3. About HSBC Group. 4. Purpose
+and strategy. 4.</t>
+        </is>
+      </c>
+      <c r="E68" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="F68" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2021</t>
+        </is>
+      </c>
+      <c r="G68" s="3" t="inlineStr">
+        <is>
+          <t>D:20220222012612+05'30'</t>
+        </is>
+      </c>
+      <c r="H68" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I68" s="3" t="inlineStr">
+        <is>
+          <t>The document is titled 'HSBC Bank plc - Annual
+Report and Accounts 2021' and contains information
+about HSBC Group's purpose and strategy, key
+financial metrics, and key themes of 2021. The
+document is published by HSBC, a financial
+services company, and is intended for investors.
+The document is likely to be an annual report,
+which is a type of financial report that publicly
+traded companies are required to file with the
+Securities and Exchange Commission (SEC) each
+year.</t>
+        </is>
+      </c>
+      <c r="J68" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="30" customHeight="1">
+      <c r="A69" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: Forms 3,4, and 5 of Standard
+Chartered for 2021 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B69" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C69" s="3" t="inlineStr">
+        <is>
+          <t>Notice of 2019 Annual General Meeting -
+Announcement made to ...</t>
+        </is>
+      </c>
+      <c r="D69" s="3" t="inlineStr">
+        <is>
+          <t>Mar 6 2019 ... The ordinary shares of the Company
+trade under stock code 5 on The Stock Exchange of
+Hong Kong Limited. A Chinese translation of this
+Notice of ...</t>
+        </is>
+      </c>
+      <c r="E69" s="3" t="inlineStr">
+        <is>
+          <t>Notice of 2019 Annual General Meeting -
+Announcement made to the HK stock exchange -
+English</t>
+        </is>
+      </c>
+      <c r="F69" s="3" t="inlineStr">
+        <is>
+          <t>Stock exchange announcement</t>
+        </is>
+      </c>
+      <c r="G69" s="3" t="inlineStr">
+        <is>
+          <t>D:20190225205638Z</t>
+        </is>
+      </c>
+      <c r="H69" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I69" s="3" t="inlineStr">
+        <is>
+          <t>The snippet contains the words 'AGM' and 'Annual
+General Meeting', which are strong indicators of
+an Annual Report.</t>
+        </is>
+      </c>
+      <c r="J69" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" ht="30" customHeight="1">
+      <c r="A70" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: Forms 3,4, and 5 of Standard
+Chartered for 2021 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B70" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C70" s="3" t="inlineStr">
+        <is>
+          <t>ANNUAL REPORT</t>
+        </is>
+      </c>
+      <c r="D70" s="3" t="inlineStr">
+        <is>
+          <t>The standard Assets form 92.19 % of the total
+advances. Fraud Amt. of Rs 109489 ... 3 years to 5
+years. 2211201. 3543960. 5 o"kZ ls vf/kd@Over 5
+years. 2078995.</t>
+        </is>
+      </c>
+      <c r="E70" s="3" t="inlineStr">
+        <is>
+          <t>cover.cdr</t>
+        </is>
+      </c>
+      <c r="F70" s="3" t="inlineStr"/>
+      <c r="G70" s="3" t="inlineStr">
+        <is>
+          <t>D:20201127181404+05'30'</t>
+        </is>
+      </c>
+      <c r="H70" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I70" s="3" t="inlineStr">
+        <is>
+          <t>The document is titled 'ANNUAL REPORT' and
+contains information about the company's financial
+performance, which is indicative of an annual
+report.</t>
+        </is>
+      </c>
+      <c r="J70" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://prathamaupbank.com/Writereaddata/Downloads/Annaul%20Report%20FY%202019-20%20final%20complete%20report_compressed.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" ht="30" customHeight="1">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: Forms 3,4, and 5 of Standard
+Chartered for 2021 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B71" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="C71" s="3" t="inlineStr">
+        <is>
+          <t>According to the 2011 HSBC Annual Report and
+Accounts profit ...</t>
+        </is>
+      </c>
+      <c r="D71" s="3" t="inlineStr">
+        <is>
+          <t>The. Page 4. 3. Report of the Directors. HSBC BANK
+EGYPT S.A.E. final decision however will need the
+approval of the. Supreme Council for Armed Forces
+(SCAF).</t>
+        </is>
+      </c>
+      <c r="E71" s="3" t="inlineStr">
+        <is>
+          <t>According to the 2011 HSBC Annual Report and
+Accounts profit before tax rose 20 per cent while
+total deposits rose 6 per cent at year-end.</t>
+        </is>
+      </c>
+      <c r="F71" s="3" t="inlineStr">
+        <is>
+          <t>2011 HSBC Annual Report and Accounts</t>
+        </is>
+      </c>
+      <c r="G71" s="3" t="inlineStr">
+        <is>
+          <t>D:20120902125026Z</t>
+        </is>
+      </c>
+      <c r="H71" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I71" s="3" t="inlineStr">
+        <is>
+          <t>The snippet contains 'HSBC Annual Report and
+Accounts'</t>
+        </is>
+      </c>
+      <c r="J71" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2011/20111231-hsbc-annual-report-and-accounts-english.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="30" customHeight="1">
+      <c r="A72" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: Forms 3,4, and 5 of Columbia
+Bank for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B72" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" s="3" t="inlineStr">
+        <is>
+          <t>The Hongkong and Shanghai Banking Corporation
+Limited - Annual ...</t>
+        </is>
+      </c>
+      <c r="D72" s="3" t="inlineStr">
+        <is>
+          <t>Feb 22 2022 ... 1 Capital is calculated in
+accordance with the Banking (Capital) Rules issued
+by the Hong Kong Monetary Authority ('HKMA') under
+section 97C(1).</t>
+        </is>
+      </c>
+      <c r="E72" s="3" t="inlineStr">
+        <is>
+          <t>The Hongkong and Shanghai Banking Corporation
+Limited - Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="F72" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="G72" s="3" t="inlineStr">
+        <is>
+          <t>D:20220221201520+08'00'</t>
+        </is>
+      </c>
+      <c r="H72" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I72" s="3" t="inlineStr">
+        <is>
+          <t>The snippet contains the text "Annual Report and
+Accounts 2021", which is a strong indicator that
+the document is an annual report.</t>
+        </is>
+      </c>
+      <c r="J72" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="30" customHeight="1">
+      <c r="A73" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: Forms 3,4, and 5 of Columbia
+Bank for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B73" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C73" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Bank Middle East Limited Annual Report and
+Accounts 2021</t>
+        </is>
+      </c>
+      <c r="D73" s="3" t="inlineStr">
+        <is>
+          <t>Feb 22 2022 ... ... 2022 but to move slowly and to
+keep monetary policy accommodative overall ...
+Band 4 and 5. Sub-standard. B– to C. CRR6 to CRR8.
+Band 6. Impaired.</t>
+        </is>
+      </c>
+      <c r="E73" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Bank Middle East Limited Annual Report and
+Accounts 2021</t>
+        </is>
+      </c>
+      <c r="F73" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2021</t>
+        </is>
+      </c>
+      <c r="G73" s="3" t="inlineStr">
+        <is>
+          <t>D:20220221174857Z</t>
+        </is>
+      </c>
+      <c r="H73" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I73" s="3" t="inlineStr">
+        <is>
+          <t>The document is titled 'HSBC Bank Middle East
+Limited Annual Report and Accounts 2021' and
+contains information about the bank's financial
+performance and position.</t>
+        </is>
+      </c>
+      <c r="J73" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-middle-east-limited/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="30" customHeight="1">
+      <c r="A74" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: Forms 3,4, and 5 of Columbia
+Bank for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B74" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C74" s="3" t="inlineStr">
+        <is>
+          <t>Notice of 2019 Annual General Meeting -
+Announcement made to ...</t>
+        </is>
+      </c>
+      <c r="D74" s="3" t="inlineStr">
+        <is>
+          <t>Mar 6 2019 ... The ordinary shares of the Company
+trade under stock code 5 on The Stock Exchange of
+Hong Kong Limited. A Chinese translation of this
+Notice of ...</t>
+        </is>
+      </c>
+      <c r="E74" s="3" t="inlineStr">
+        <is>
+          <t>Notice of 2019 Annual General Meeting -
+Announcement made to the HK stock exchange -
+English</t>
+        </is>
+      </c>
+      <c r="F74" s="3" t="inlineStr">
+        <is>
+          <t>Stock exchange announcement</t>
+        </is>
+      </c>
+      <c r="G74" s="3" t="inlineStr">
+        <is>
+          <t>D:20190225205638Z</t>
+        </is>
+      </c>
+      <c r="H74" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I74" s="3" t="inlineStr">
+        <is>
+          <t>The snippet contains the words 'Annual General
+Meeting', which is a strong indicator of an Annual
+Report.</t>
+        </is>
+      </c>
+      <c r="J74" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" ht="30" customHeight="1">
+      <c r="A75" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-Q/A of Prathama U.P. Gramin
+Bank for 2021 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B75" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" s="3" t="inlineStr">
+        <is>
+          <t>ANNUAL REPORT</t>
+        </is>
+      </c>
+      <c r="D75" s="3" t="inlineStr">
+        <is>
+          <t>Standards issued by ICAI and provisions of Section
+29 of the Banking Regulation Act1949 and circulars
+and ... In terms of Prathama U.P. Gramin Bank
+Pension ...</t>
+        </is>
+      </c>
+      <c r="E75" s="3" t="inlineStr">
+        <is>
+          <t>cover.cdr</t>
+        </is>
+      </c>
+      <c r="F75" s="3" t="inlineStr"/>
+      <c r="G75" s="3" t="inlineStr">
+        <is>
+          <t>D:20201127181404+05'30'</t>
+        </is>
+      </c>
+      <c r="H75" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I75" s="3" t="inlineStr">
+        <is>
+          <t>The rationale behind this classification is that
+the document is titled 'ANNUAL REPORT' and
+contains information about the bank's financial
+performance, which is consistent with the
+definition of an annual report.</t>
+        </is>
+      </c>
+      <c r="J75" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://prathamaupbank.com/Writereaddata/Downloads/Annaul%20Report%20FY%202019-20%20final%20complete%20report_compressed.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="76" ht="30" customHeight="1">
+      <c r="A76" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-Q/A of HSBC for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B76" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C76" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="D76" s="3" t="inlineStr">
+        <is>
+          <t>Feb 22 2022 ... 2021 payout ratio: 40.3%. Target:
+sustainable cash dividends with a payout ratio of
+40% to 55% from 2022 onwards. For our financial
+targets we ...</t>
+        </is>
+      </c>
+      <c r="E76" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="F76" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2021</t>
+        </is>
+      </c>
+      <c r="G76" s="3" t="inlineStr">
+        <is>
+          <t>D:20220221132403Z</t>
+        </is>
+      </c>
+      <c r="H76" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I76" s="3" t="inlineStr">
+        <is>
+          <t>The document is titled 'HSBC Holdings plc Annual
+Report and Accounts 2021' and contains information
+about the company's financial performance and
+position, which is indicative of an annual report.</t>
+        </is>
+      </c>
+      <c r="J76" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-holdings-plc/220222-annual-report-and-accounts-2021.pdf?download=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="77" ht="30" customHeight="1">
+      <c r="A77" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-Q/A of HSBC for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B77" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C77" s="3" t="inlineStr">
+        <is>
+          <t>The Hongkong and Shanghai Banking Corporation
+Limited - Annual ...</t>
+        </is>
+      </c>
+      <c r="D77" s="3" t="inlineStr">
+        <is>
+          <t>Feb 22 2022 ... A Chinese translation of the
+Annual Report and Accounts 2021 is available upon
+request from: Communications (Asia) Level 32. HSBC
+Main ...</t>
+        </is>
+      </c>
+      <c r="E77" s="3" t="inlineStr">
+        <is>
+          <t>The Hongkong and Shanghai Banking Corporation
+Limited - Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="F77" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="G77" s="3" t="inlineStr">
+        <is>
+          <t>D:20220221201520+08'00'</t>
+        </is>
+      </c>
+      <c r="H77" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I77" s="3" t="inlineStr">
+        <is>
+          <t>The snippet contains 'Annual Report and Accounts
+2021', which is a strong indicator of an Annual
+Report document.</t>
+        </is>
+      </c>
+      <c r="J77" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="78" ht="30" customHeight="1">
+      <c r="A78" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-Q/A of HSBC for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B78" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C78" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc Interim Report 2022</t>
+        </is>
+      </c>
+      <c r="D78" s="3" t="inlineStr">
+        <is>
+          <t>Aug 1 2022 ... Read more on page 10. Delivery
+against our financial targets. Return on average
+tangible equity. (annualised). 9.9%.</t>
+        </is>
+      </c>
+      <c r="E78" s="3" t="inlineStr">
+        <is>
+          <t>Interim Report 2022</t>
+        </is>
+      </c>
+      <c r="F78" s="3" t="inlineStr">
+        <is>
+          <t>Interim Results 2022</t>
+        </is>
+      </c>
+      <c r="G78" s="3" t="inlineStr">
+        <is>
+          <t>D:20220731111324Z</t>
+        </is>
+      </c>
+      <c r="H78" s="3" t="inlineStr">
+        <is>
+          <t>Quarterly report</t>
+        </is>
+      </c>
+      <c r="I78" s="3" t="inlineStr">
+        <is>
+          <t>The document is titled 'HSBC Holdings plc Interim
+Report 2022' and contains financial information
+such as 'Return on average tangible equity' and
+'Delivery against our financial targets' in the
+SNIPPET under METADATA, which are indicative of a
+quarterly report.</t>
+        </is>
+      </c>
+      <c r="J78" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/interim/pdfs/hsbc-holdings-plc/220801-interim-report-2022.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="79" ht="30" customHeight="1">
+      <c r="A79" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-Q/A of HSBC for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B79" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C79" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Bank plc - Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="D79" s="3" t="inlineStr">
+        <is>
+          <t>Feb 21 2022 ... HSBC Bank plc is exempt from
+publishing information required by. The Capital
+Requirements Country-by-Country Reporting.
+Regulations 2013 as ...</t>
+        </is>
+      </c>
+      <c r="E79" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="F79" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2021</t>
+        </is>
+      </c>
+      <c r="G79" s="3" t="inlineStr">
+        <is>
+          <t>D:20220222012612+05'30'</t>
+        </is>
+      </c>
+      <c r="H79" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I79" s="3" t="inlineStr">
+        <is>
+          <t>The document is titled 'HSBC Bank plc - Annual
+Report and Accounts 2021' and contains information
+required by The Capital Requirements
+Country-by-Country Reporting Regulations 2013.</t>
+        </is>
+      </c>
+      <c r="J79" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="80" ht="30" customHeight="1">
+      <c r="A80" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-Q/A of HSBC for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B80" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C80" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Bank Middle East Limited Annual Report and
+Accounts 2021</t>
+        </is>
+      </c>
+      <c r="D80" s="3" t="inlineStr">
+        <is>
+          <t>Feb 22 2022 ... ... 2022 but to move slowly and to
+keep monetary policy accommodative overall. Policy
+tightening in emerging markets has already begun
+in order ...</t>
+        </is>
+      </c>
+      <c r="E80" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Bank Middle East Limited Annual Report and
+Accounts 2021</t>
+        </is>
+      </c>
+      <c r="F80" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2021</t>
+        </is>
+      </c>
+      <c r="G80" s="3" t="inlineStr">
+        <is>
+          <t>D:20220221174857Z</t>
+        </is>
+      </c>
+      <c r="H80" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I80" s="3" t="inlineStr">
+        <is>
+          <t>The meta tag title 'HSBC Bank Middle East Limited
+Annual Report and Accounts 2021' contains the term
+'Annual Report', which is a synonym for 'General
+Corporate Report' in the definition of 'Annual
+Report' topic.</t>
+        </is>
+      </c>
+      <c r="J80" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-middle-east-limited/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="81" ht="30" customHeight="1">
+      <c r="A81" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-Q/A of HSBC for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B81" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C81" s="3" t="inlineStr">
+        <is>
+          <t>Financial Statements - 31 December 2021</t>
+        </is>
+      </c>
+      <c r="D81" s="3" t="inlineStr">
+        <is>
+          <t>Dec 31 2021 ... His interest in the Bank's related
+corporation is as disclosed in the Directors'
+Report on page 18. 2. Page 5. HSBC BANK MALAYSIA
+BERHAD. ( ...</t>
+        </is>
+      </c>
+      <c r="E81" s="3" t="inlineStr">
+        <is>
+          <t>Financial Statements - 31 December 2021</t>
+        </is>
+      </c>
+      <c r="F81" s="3" t="inlineStr">
+        <is>
+          <t>Financial and regulatory reports</t>
+        </is>
+      </c>
+      <c r="G81" s="3" t="inlineStr">
+        <is>
+          <t>D:20220218173806+08'00'</t>
+        </is>
+      </c>
+      <c r="H81" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I81" s="3" t="inlineStr">
+        <is>
+          <t>The document is titled 'Financial Statements - 31
+December 2021' and contains information about
+HSBC's financial performance for the year ended
+December 31, 2021. The document also includes the
+Directors' Report, which discusses the company's
+corporate governance practices.</t>
+        </is>
+      </c>
+      <c r="J81" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2021/financial-and-regulatory-reports/220420-hbmy-financial-statements-31-december-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="82" ht="30" customHeight="1">
+      <c r="A82" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-Q/A of HSBC for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B82" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C82" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc Pillar 3 Disclosures at 30 June
+2020</t>
+        </is>
+      </c>
+      <c r="D82" s="3" t="inlineStr">
+        <is>
+          <t>Jun 30 2020 ... The Group has adopted the EU's
+regulatory transitional arrangements for IFRS 9
+'Financial Instruments'. A number of tables in
+this document ...</t>
+        </is>
+      </c>
+      <c r="E82" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc Pillar 3 Disclosures at 30 June
+2020</t>
+        </is>
+      </c>
+      <c r="F82" s="3" t="inlineStr">
+        <is>
+          <t>Interim Results 2019</t>
+        </is>
+      </c>
+      <c r="G82" s="3" t="inlineStr">
+        <is>
+          <t>D:20200807230100+05'30'</t>
+        </is>
+      </c>
+      <c r="H82" s="3" t="inlineStr">
+        <is>
+          <t>Quarterly Report</t>
+        </is>
+      </c>
+      <c r="I82" s="3" t="inlineStr">
+        <is>
+          <t>The document is a quarterly report of HSBC for
+2022 in PDF format. The snippet under METADATA
+contains the text "Jun 30 2020", which indicates
+that the report is for the second quarter of 2020.</t>
+        </is>
+      </c>
+      <c r="J82" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2020/august/sea-200810-hsbc-holdings-q2-2020-pillar-3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="83" ht="30" customHeight="1">
+      <c r="A83" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-Q/A of HSBC for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B83" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="C83" s="3" t="inlineStr">
+        <is>
+          <t>USD 50000000000 Programme for Issuance of
+Perpetual ...</t>
+        </is>
+      </c>
+      <c r="D83" s="3" t="inlineStr">
+        <is>
+          <t>Mar 30 2021 ... ...
+hsbc-holdings-plc/210223-sec-specific-disclosures-
+· 2020.pdf?download ... Regulation") or section 86
+of the FSMA respectively from the ...</t>
+        </is>
+      </c>
+      <c r="E83" s="3" t="inlineStr">
+        <is>
+          <t>USD 50000000000 Programme for Issuance of
+Perpetual Subordinated Contingent Convertible
+Securities</t>
+        </is>
+      </c>
+      <c r="F83" s="3" t="inlineStr">
+        <is>
+          <t>Issuance programmes</t>
+        </is>
+      </c>
+      <c r="G83" s="3" t="inlineStr">
+        <is>
+          <t>D:20210330154938+01'00'</t>
+        </is>
+      </c>
+      <c r="H83" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I83" s="3" t="inlineStr">
+        <is>
+          <t>The document is an annual report of HSBC for 2022
+as mentioned in the QUERY under METADATA.</t>
+        </is>
+      </c>
+      <c r="J83" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/fixed-income-investors/issuance-programmes/hsbc-holdings/2021/210330-hghq-2021-at1-offering-memorandum.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="84" ht="30" customHeight="1">
+      <c r="A84" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-Q/A of HSBC for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B84" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="C84" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc - Capital and Risk Management
+Pillar 3 ...</t>
+        </is>
+      </c>
+      <c r="D84" s="3" t="inlineStr">
+        <is>
+          <t>Dec 31 2015 ... below the 10% regulatory floor.
+The Hong Kong credit card. EAD model ... appendix
+to Risk Section on page 217 of the Annual Report
+and ...</t>
+        </is>
+      </c>
+      <c r="E84" s="3" t="inlineStr">
+        <is>
+          <t>Capital and Risk Management Pillar 3 Disclosures
+at 31 December 2015</t>
+        </is>
+      </c>
+      <c r="F84" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2015</t>
+        </is>
+      </c>
+      <c r="G84" s="3" t="inlineStr">
+        <is>
+          <t>D:20160220133333Z</t>
+        </is>
+      </c>
+      <c r="H84" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I84" s="3" t="inlineStr">
+        <is>
+          <t>The snippet contains the text "appendix to Risk
+Section on page 217 of the Annual Report", which
+indicates that this document is related to an
+annual report.</t>
+        </is>
+      </c>
+      <c r="J84" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/group/2015/annual-results/hsbc-holdings-plc/hsbc-holdings-plc-capital-and-risk-management-pillar-3-disclosures-at-31-december-2015.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="85" ht="30" customHeight="1">
+      <c r="A85" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-Q/A of HSBC for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B85" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C85" s="3" t="inlineStr">
+        <is>
+          <t>Notice of 2019 Annual General Meeting - English -
+HSBC Group</t>
+        </is>
+      </c>
+      <c r="D85" s="3" t="inlineStr">
+        <is>
+          <t>Mar 6 2019 ... that shareholders will be asked to
+approve the remuneration policy will be at the
+2022 AGM. ... section-12-January-2018.pdf.
+External legal ...</t>
+        </is>
+      </c>
+      <c r="E85" s="3" t="inlineStr">
+        <is>
+          <t>Notice of 2019 Annual General Meeting -
+Announcement made to the HK stock exchange -
+English</t>
+        </is>
+      </c>
+      <c r="F85" s="3" t="inlineStr">
+        <is>
+          <t>Stock exchange announcement</t>
+        </is>
+      </c>
+      <c r="G85" s="3" t="inlineStr">
+        <is>
+          <t>D:20190225205638Z</t>
+        </is>
+      </c>
+      <c r="H85" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="I85" s="3" t="inlineStr">
+        <is>
+          <t>The snippet contains the text "AGM", which is an
+abbreviation for "Annual General Meeting". The AGM
+is an annual meeting of shareholders of a company,
+and is typically held to approve the company's
+financial statements and elect directors. The
+snippet also mentions that the meeting will be
+held in 2019, which is the year that the PDF was
+published.</t>
+        </is>
+      </c>
+      <c r="J85" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>

--- a/data/evaluate/site-search-results-pruned.xlsx
+++ b/data/evaluate/site-search-results-pruned.xlsx
@@ -439,7 +439,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="30" customHeight="1">
+    <row r="1" ht="15" customHeight="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>query</t>
@@ -491,7 +491,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="30" customHeight="1">
+    <row r="2" ht="15" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Annual Registration Document of Standard Chartered
@@ -532,12 +532,11 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.sc.com/en/investors/financial-results/annual-report-2022/</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="30" customHeight="1">
+          <t>https://www.sc.com/en/investors/financial-results/annual-report-2022/</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
       <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Annual Registration Document of Standard Chartered
@@ -588,12 +587,11 @@
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.sc.com/global/av/pk-annual-report-2016.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="30" customHeight="1">
+          <t>https://www.sc.com/global/av/pk-annual-report-2016.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Annual Registration Document of Standard Chartered
@@ -642,12 +640,11 @@
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.sc.com/global/av/pk-report-2015-final.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="30" customHeight="1">
+          <t>https://www.sc.com/global/av/pk-report-2015-final.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
       <c r="A5" s="3" t="inlineStr">
         <is>
           <t>Annual Registration Document of Standard Chartered
@@ -699,12 +696,11 @@
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
       <c r="A6" s="3" t="inlineStr">
         <is>
           <t>Annual Registration Document of Standard Chartered
@@ -760,12 +756,11 @@
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
       <c r="A7" s="3" t="inlineStr">
         <is>
           <t>General Corporate Report of Indian Overseas Bank
@@ -819,12 +814,11 @@
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
       <c r="A8" s="3" t="inlineStr">
         <is>
           <t>General Corporate Report of Indian Overseas Bank
@@ -871,12 +865,11 @@
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.iob.in/upload/CEDocuments/iobPolicyAppointmentStatutoryCentralAuditorsStatutoryBranchAuditors.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="30" customHeight="1">
+          <t>https://www.iob.in/upload/CEDocuments/iobPolicyAppointmentStatutoryCentralAuditorsStatutoryBranchAuditors.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
       <c r="A9" s="3" t="inlineStr">
         <is>
           <t>General Corporate Report of Indian Overseas Bank
@@ -929,12 +922,11 @@
       </c>
       <c r="J9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2020/annual/pdfs/hsbc-holdings-plc/210223-presentation-to-investors-and-analysts.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2020/annual/pdfs/hsbc-holdings-plc/210223-presentation-to-investors-and-analysts.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
       <c r="A10" s="3" t="inlineStr">
         <is>
           <t>General Corporate Report of Indian Overseas Bank
@@ -979,12 +971,11 @@
       </c>
       <c r="J10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.iob.in/Upload/Tender/IOB1152021120818PM_RFPITD0172122.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="30" customHeight="1">
+          <t>https://www.iob.in/Upload/Tender/IOB1152021120818PM_RFPITD0172122.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
       <c r="A11" s="3" t="inlineStr">
         <is>
           <t>General Corporate Report of Indian Overseas Bank
@@ -1031,12 +1022,11 @@
       </c>
       <c r="J11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.iob.in/upload/CEDocuments/UNCL-WEB01-2019-04.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="30" customHeight="1">
+          <t>https://www.iob.in/upload/CEDocuments/UNCL-WEB01-2019-04.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
       <c r="A12" s="3" t="inlineStr">
         <is>
           <t>General Corporate Report of Indian Overseas Bank
@@ -1080,12 +1070,11 @@
       </c>
       <c r="J12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.iob.in/upload/CEDocuments/UNCL-WEB02-2019-04.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="30" customHeight="1">
+          <t>https://www.iob.in/upload/CEDocuments/UNCL-WEB02-2019-04.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
       <c r="A13" s="3" t="inlineStr">
         <is>
           <t>General Corporate Report of Indian Overseas Bank
@@ -1136,12 +1125,11 @@
       </c>
       <c r="J13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2018/interim-results/the-hongkong-and-shanghai-banking-corporation-limited/180806-interim-report-2018.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2018/interim-results/the-hongkong-and-shanghai-banking-corporation-limited/180806-interim-report-2018.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
       <c r="A14" s="3" t="inlineStr">
         <is>
           <t>General Corporate Report of Indian Overseas Bank
@@ -1186,12 +1174,11 @@
       </c>
       <c r="J14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.iob.in/upload/CEDocuments/UNCL-WEB04-2019-04.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="30" customHeight="1">
+          <t>https://www.iob.in/upload/CEDocuments/UNCL-WEB04-2019-04.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
       <c r="A15" s="3" t="inlineStr">
         <is>
           <t>General Corporate Report of Indian Overseas Bank
@@ -1236,12 +1223,11 @@
       </c>
       <c r="J15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.iob.in/upload/CEDocuments/UNCL-WEB05-2019-04.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="30" customHeight="1">
+          <t>https://www.iob.in/upload/CEDocuments/UNCL-WEB05-2019-04.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
       <c r="A16" s="3" t="inlineStr">
         <is>
           <t>Annual Report of Commerzbank for 2021 filetype:
@@ -1291,12 +1277,11 @@
       </c>
       <c r="J16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.commerzbank.com/media/en/presse/presentations/Commerzbank_Basispraesentation.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="30" customHeight="1">
+          <t>https://www.commerzbank.com/media/en/presse/presentations/Commerzbank_Basispraesentation.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
       <c r="A17" s="3" t="inlineStr">
         <is>
           <t>Annual Report of Commerzbank for 2021 filetype:
@@ -1348,12 +1333,11 @@
       </c>
       <c r="J17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
       <c r="A18" s="3" t="inlineStr">
         <is>
           <t>Annual Report of Commerzbank for 2022 filetype:
@@ -1402,12 +1386,11 @@
       </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.commerzbank.com/media/en/presse/presentations/Commerzbank_Basispraesentation.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="30" customHeight="1">
+          <t>https://www.commerzbank.com/media/en/presse/presentations/Commerzbank_Basispraesentation.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
       <c r="A19" s="3" t="inlineStr">
         <is>
           <t>Annual Report of Commerzbank for 2022 filetype:
@@ -1460,12 +1443,11 @@
       </c>
       <c r="J19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
       <c r="A20" s="3" t="inlineStr">
         <is>
           <t>Universal Registration Document of Standard
@@ -1505,12 +1487,11 @@
       </c>
       <c r="J20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.sc.com/en/investors/financial-results/annual-report-2022/</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="30" customHeight="1">
+          <t>https://www.sc.com/en/investors/financial-results/annual-report-2022/</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
         <is>
           <t>Universal Registration Document of Standard
@@ -1562,12 +1543,11 @@
       </c>
       <c r="J21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
         <is>
           <t>Universal Registration Document of Standard
@@ -1607,12 +1587,11 @@
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.sc.com/en/investors/financial-results/annual-report-2022/</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" ht="30" customHeight="1">
+          <t>https://www.sc.com/en/investors/financial-results/annual-report-2022/</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
         <is>
           <t>Universal Registration Document of Standard
@@ -1661,12 +1640,11 @@
       </c>
       <c r="J23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.sc.com/global/av/pk-report-2015-final.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="30" customHeight="1">
+          <t>https://www.sc.com/global/av/pk-report-2015-final.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
       <c r="A24" s="3" t="inlineStr">
         <is>
           <t>Universal Registration Document of Standard
@@ -1718,12 +1696,11 @@
       </c>
       <c r="J24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="25" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1">
       <c r="A25" s="3" t="inlineStr">
         <is>
           <t>Annual Information Form of HSBC for 2021 filetype:
@@ -1776,12 +1753,11 @@
       </c>
       <c r="J25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-holdings-plc/220222-annual-report-and-accounts-2021.pdf?download=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-holdings-plc/220222-annual-report-and-accounts-2021.pdf?download=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1">
       <c r="A26" s="3" t="inlineStr">
         <is>
           <t>Annual Information Form of HSBC for 2021 filetype:
@@ -1821,12 +1797,11 @@
       </c>
       <c r="J26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/investors/results-and-announcements</t>
-        </is>
-      </c>
-    </row>
-    <row r="27" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/investors/results-and-announcements</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1">
       <c r="A27" s="3" t="inlineStr">
         <is>
           <t>Annual Information Form of HSBC for 2021 filetype:
@@ -1866,12 +1841,11 @@
       </c>
       <c r="J27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/who-we-are/esg-and-responsible-business/esg-reporting-centre</t>
-        </is>
-      </c>
-    </row>
-    <row r="28" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/who-we-are/esg-and-responsible-business/esg-reporting-centre</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1">
       <c r="A28" s="3" t="inlineStr">
         <is>
           <t>Annual Information Form of HSBC for 2021 filetype:
@@ -1925,12 +1899,11 @@
       </c>
       <c r="J28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="29" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1">
       <c r="A29" s="3" t="inlineStr">
         <is>
           <t>Annual Information Form of HSBC for 2021 filetype:
@@ -1984,12 +1957,11 @@
       </c>
       <c r="J29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="30" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1">
       <c r="A30" s="3" t="inlineStr">
         <is>
           <t>Annual Information Form of HSBC for 2021 filetype:
@@ -2044,12 +2016,11 @@
       </c>
       <c r="J30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-middle-east-limited/220222-annual-report-and-accounts-2021.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="31" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-middle-east-limited/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1">
       <c r="A31" s="3" t="inlineStr">
         <is>
           <t>Annual Information Form of HSBC for 2021 filetype:
@@ -2107,12 +2078,11 @@
       </c>
       <c r="J31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-holdings-plc/220222-strategic-report-2021.pdf?download=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="32" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-holdings-plc/220222-strategic-report-2021.pdf?download=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="15" customHeight="1">
       <c r="A32" s="3" t="inlineStr">
         <is>
           <t>Annual Information Form of HSBC for 2021 filetype:
@@ -2166,12 +2136,11 @@
       </c>
       <c r="J32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/annual/pdfs/hsbc-holdings-plc/230221-esg-review-2022.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="33" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/annual/pdfs/hsbc-holdings-plc/230221-esg-review-2022.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="15" customHeight="1">
       <c r="A33" s="3" t="inlineStr">
         <is>
           <t>Annual Information Form of HSBC for 2021 filetype:
@@ -2227,12 +2196,11 @@
       </c>
       <c r="J33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2020/annual/pdfs/hsbc-holdings-plc/210223-strategic-report-2020.pdf?download=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="34" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2020/annual/pdfs/hsbc-holdings-plc/210223-strategic-report-2020.pdf?download=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="15" customHeight="1">
       <c r="A34" s="3" t="inlineStr">
         <is>
           <t>Annual Information Form of HSBC for 2021 filetype:
@@ -2286,12 +2254,11 @@
       </c>
       <c r="J34" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2021/financial-and-regulatory-reports/220420-hbmy-financial-statements-31-december-2021.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="35" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2021/financial-and-regulatory-reports/220420-hbmy-financial-statements-31-december-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="15" customHeight="1">
       <c r="A35" s="3" t="inlineStr">
         <is>
           <t>Annual Information Form of HSBC for 2021 filetype:
@@ -2344,12 +2311,11 @@
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/interim/pdfs/hsbc-holdings-plc/220801-interim-report-2022.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="36" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/interim/pdfs/hsbc-holdings-plc/220801-interim-report-2022.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="15" customHeight="1">
       <c r="A36" s="3" t="inlineStr">
         <is>
           <t>Annual Information Form of HSBC for 2021 filetype:
@@ -2390,12 +2356,11 @@
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-holdings-plc/220222-esg-datapack-2021-excel.xlsx?download=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="37" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-holdings-plc/220222-esg-datapack-2021-excel.xlsx?download=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="15" customHeight="1">
       <c r="A37" s="3" t="inlineStr">
         <is>
           <t>Annual Information Form of HSBC for 2021 filetype:
@@ -2449,12 +2414,11 @@
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2020/annual/pdfs/hsbc-holdings-plc/210223-presentation-to-investors-and-analysts.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="38" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2020/annual/pdfs/hsbc-holdings-plc/210223-presentation-to-investors-and-analysts.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="15" customHeight="1">
       <c r="A38" s="3" t="inlineStr">
         <is>
           <t>Annual Information Form of HSBC for 2021 filetype:
@@ -2511,12 +2475,11 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2011/20111231-hsbc-annual-report-and-accounts-english.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="39" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2011/20111231-hsbc-annual-report-and-accounts-english.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="15" customHeight="1">
       <c r="A39" s="3" t="inlineStr">
         <is>
           <t>Annual Information Form of HSBC for 2021 filetype:
@@ -2571,12 +2534,11 @@
       </c>
       <c r="J39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="40" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="15" customHeight="1">
       <c r="A40" s="3" t="inlineStr">
         <is>
           <t>Annual Information Form of HSBC for 2021 filetype:
@@ -2634,12 +2596,11 @@
       </c>
       <c r="J40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2020/august/sea-200810-hsbc-holdings-q2-2020-pillar-3.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="41" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2020/august/sea-200810-hsbc-holdings-q2-2020-pillar-3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="15" customHeight="1">
       <c r="A41" s="3" t="inlineStr">
         <is>
           <t>Annual Information Form of HSBC for 2021 filetype:
@@ -2695,12 +2656,11 @@
       </c>
       <c r="J41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2018/August/sea-180806-e-2018-interim-results-highlights.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="42" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2018/August/sea-180806-e-2018-interim-results-highlights.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="15" customHeight="1">
       <c r="A42" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: 10-K of Columbia Bank for 2022
@@ -2754,12 +2714,11 @@
       </c>
       <c r="J42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="43" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="15" customHeight="1">
       <c r="A43" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: 10-K of Columbia Bank for 2022
@@ -2815,12 +2774,11 @@
       </c>
       <c r="J43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-middle-east-limited/220222-annual-report-and-accounts-2021.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="44" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-middle-east-limited/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="15" customHeight="1">
       <c r="A44" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: 10-K of Columbia Bank for 2022
@@ -2872,12 +2830,11 @@
       </c>
       <c r="J44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/interim/pdfs/hsbc-holdings-plc/220801-interim-report-2022.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="45" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/interim/pdfs/hsbc-holdings-plc/220801-interim-report-2022.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="15" customHeight="1">
       <c r="A45" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: 10-K of Columbia Bank for 2022
@@ -2932,12 +2889,11 @@
       </c>
       <c r="J45" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="46" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="15" customHeight="1">
       <c r="A46" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: 10K/A of HSBC for 2021
@@ -2977,12 +2933,11 @@
       </c>
       <c r="J46" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/investors/results-and-announcements</t>
-        </is>
-      </c>
-    </row>
-    <row r="47" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/investors/results-and-announcements</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="15" customHeight="1">
       <c r="A47" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: 10K/A of HSBC for 2021
@@ -3034,12 +2989,11 @@
       </c>
       <c r="J47" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-holdings-plc/220222-annual-report-and-accounts-2021.pdf?download=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="48" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-holdings-plc/220222-annual-report-and-accounts-2021.pdf?download=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="15" customHeight="1">
       <c r="A48" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: 10K/A of HSBC for 2021
@@ -3093,12 +3047,11 @@
       </c>
       <c r="J48" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="49" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="15" customHeight="1">
       <c r="A49" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: 10K/A of HSBC for 2021
@@ -3150,12 +3103,11 @@
       </c>
       <c r="J49" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="50" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="15" customHeight="1">
       <c r="A50" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: 10K/A of HSBC for 2021
@@ -3208,12 +3160,11 @@
       </c>
       <c r="J50" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/annual/pdfs/hsbc-holdings-plc/230221-esg-review-2022.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="51" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/annual/pdfs/hsbc-holdings-plc/230221-esg-review-2022.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="15" customHeight="1">
       <c r="A51" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: 10K/A of HSBC for 2021
@@ -3267,12 +3218,11 @@
       </c>
       <c r="J51" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-holdings-plc/220222-strategic-report-2021.pdf?download=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="52" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-holdings-plc/220222-strategic-report-2021.pdf?download=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="15" customHeight="1">
       <c r="A52" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: 10K/A of HSBC for 2021
@@ -3328,12 +3278,11 @@
       </c>
       <c r="J52" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-middle-east-limited/220222-annual-report-and-accounts-2021.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="53" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-middle-east-limited/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="15" customHeight="1">
       <c r="A53" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: 10K/A of HSBC for 2021
@@ -3389,12 +3338,11 @@
       </c>
       <c r="J53" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2020/annual/pdfs/hsbc-holdings-plc/210223-presentation-to-investors-and-analysts.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="54" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2020/annual/pdfs/hsbc-holdings-plc/210223-presentation-to-investors-and-analysts.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="15" customHeight="1">
       <c r="A54" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: 10K/A of HSBC for 2021
@@ -3447,12 +3395,11 @@
       </c>
       <c r="J54" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2020/annual/pdfs/hsbc-holdings-plc/210223-strategic-report-2020.pdf?download=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="55" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2020/annual/pdfs/hsbc-holdings-plc/210223-strategic-report-2020.pdf?download=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="15" customHeight="1">
       <c r="A55" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: 10K/A of HSBC for 2021
@@ -3508,12 +3455,11 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2021/financial-and-regulatory-reports/220420-hbmy-financial-statements-31-december-2021.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="56" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2021/financial-and-regulatory-reports/220420-hbmy-financial-statements-31-december-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="15" customHeight="1">
       <c r="A56" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: 10K/A of HSBC for 2021
@@ -3565,12 +3511,11 @@
       </c>
       <c r="J56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/interim/pdfs/hsbc-holdings-plc/220801-interim-report-2022.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="57" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/interim/pdfs/hsbc-holdings-plc/220801-interim-report-2022.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="15" customHeight="1">
       <c r="A57" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: 10K/A of HSBC for 2021
@@ -3630,12 +3575,11 @@
       </c>
       <c r="J57" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="58" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="15" customHeight="1">
       <c r="A58" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: 10K/A of HSBC for 2021
@@ -3689,12 +3633,11 @@
       </c>
       <c r="J58" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2011/20111231-hsbc-annual-report-and-accounts-english.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="59" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2011/20111231-hsbc-annual-report-and-accounts-english.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="15" customHeight="1">
       <c r="A59" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: 10K/A of Standard Chartered
@@ -3734,12 +3677,11 @@
       </c>
       <c r="J59" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.sc.com/en/investors/financial-results/annual-report-2022/</t>
-        </is>
-      </c>
-    </row>
-    <row r="60" ht="30" customHeight="1">
+          <t>https://www.sc.com/en/investors/financial-results/annual-report-2022/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="15" customHeight="1">
       <c r="A60" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: 10K/A of Standard Chartered
@@ -3788,12 +3730,11 @@
       </c>
       <c r="J60" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.sc.com/global/av/pk-annual-report-2016.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="61" ht="30" customHeight="1">
+          <t>https://www.sc.com/global/av/pk-annual-report-2016.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="15" customHeight="1">
       <c r="A61" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: 10K/A of Standard Chartered
@@ -3847,12 +3788,11 @@
       </c>
       <c r="J61" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="62" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="15" customHeight="1">
       <c r="A62" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: 10K/A of Standard Chartered
@@ -3901,12 +3841,11 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.sc.com/global/av/pk-report-2015-final.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="63" ht="30" customHeight="1">
+          <t>https://www.sc.com/global/av/pk-report-2015-final.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="15" customHeight="1">
       <c r="A63" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: 10K/A of Standard Chartered
@@ -3959,12 +3898,11 @@
       </c>
       <c r="J63" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="64" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="15" customHeight="1">
       <c r="A64" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: 10K/A of Standard Chartered
@@ -4013,12 +3951,11 @@
       </c>
       <c r="J64" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://prathamaupbank.com/Writereaddata/Downloads/Annaul%20Report%20FY%202019-20%20final%20complete%20report_compressed.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="65" ht="30" customHeight="1">
+          <t>https://prathamaupbank.com/Writereaddata/Downloads/Annaul%20Report%20FY%202019-20%20final%20complete%20report_compressed.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="15" customHeight="1">
       <c r="A65" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: 8-K of Commerzbank for 2021
@@ -4071,12 +4008,11 @@
       </c>
       <c r="J65" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="66" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="15" customHeight="1">
       <c r="A66" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: Forms 3,4, and 5 of Standard
@@ -4116,12 +4052,11 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.sc.com/en/investors/financial-results/annual-report-2022/</t>
-        </is>
-      </c>
-    </row>
-    <row r="67" ht="30" customHeight="1">
+          <t>https://www.sc.com/en/investors/financial-results/annual-report-2022/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" ht="15" customHeight="1">
       <c r="A67" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: Forms 3,4, and 5 of Standard
@@ -4175,12 +4110,11 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="68" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="15" customHeight="1">
       <c r="A68" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: Forms 3,4, and 5 of Standard
@@ -4240,12 +4174,11 @@
       </c>
       <c r="J68" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="69" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="15" customHeight="1">
       <c r="A69" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: Forms 3,4, and 5 of Standard
@@ -4300,12 +4233,11 @@
       </c>
       <c r="J69" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="70" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" ht="15" customHeight="1">
       <c r="A70" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: Forms 3,4, and 5 of Standard
@@ -4354,12 +4286,11 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://prathamaupbank.com/Writereaddata/Downloads/Annaul%20Report%20FY%202019-20%20final%20complete%20report_compressed.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="71" ht="30" customHeight="1">
+          <t>https://prathamaupbank.com/Writereaddata/Downloads/Annaul%20Report%20FY%202019-20%20final%20complete%20report_compressed.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" ht="15" customHeight="1">
       <c r="A71" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: Forms 3,4, and 5 of Standard
@@ -4413,12 +4344,11 @@
       </c>
       <c r="J71" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2011/20111231-hsbc-annual-report-and-accounts-english.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="72" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2011/20111231-hsbc-annual-report-and-accounts-english.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="15" customHeight="1">
       <c r="A72" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: Forms 3,4, and 5 of Columbia
@@ -4472,12 +4402,11 @@
       </c>
       <c r="J72" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="73" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="15" customHeight="1">
       <c r="A73" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: Forms 3,4, and 5 of Columbia
@@ -4532,12 +4461,11 @@
       </c>
       <c r="J73" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-middle-east-limited/220222-annual-report-and-accounts-2021.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="74" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-middle-east-limited/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="15" customHeight="1">
       <c r="A74" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: Forms 3,4, and 5 of Columbia
@@ -4592,12 +4520,11 @@
       </c>
       <c r="J74" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="75" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" ht="15" customHeight="1">
       <c r="A75" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: 10-Q/A of Prathama U.P. Gramin
@@ -4647,12 +4574,11 @@
       </c>
       <c r="J75" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://prathamaupbank.com/Writereaddata/Downloads/Annaul%20Report%20FY%202019-20%20final%20complete%20report_compressed.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="76" ht="30" customHeight="1">
+          <t>https://prathamaupbank.com/Writereaddata/Downloads/Annaul%20Report%20FY%202019-20%20final%20complete%20report_compressed.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="76" ht="15" customHeight="1">
       <c r="A76" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: 10-Q/A of HSBC for 2022
@@ -4705,12 +4631,11 @@
       </c>
       <c r="J76" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-holdings-plc/220222-annual-report-and-accounts-2021.pdf?download=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="77" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-holdings-plc/220222-annual-report-and-accounts-2021.pdf?download=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="77" ht="15" customHeight="1">
       <c r="A77" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: 10-Q/A of HSBC for 2022
@@ -4764,12 +4689,11 @@
       </c>
       <c r="J77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="78" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="78" ht="15" customHeight="1">
       <c r="A78" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: 10-Q/A of HSBC for 2022
@@ -4823,12 +4747,11 @@
       </c>
       <c r="J78" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/interim/pdfs/hsbc-holdings-plc/220801-interim-report-2022.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="79" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/interim/pdfs/hsbc-holdings-plc/220801-interim-report-2022.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="79" ht="15" customHeight="1">
       <c r="A79" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: 10-Q/A of HSBC for 2022
@@ -4881,12 +4804,11 @@
       </c>
       <c r="J79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="80" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="80" ht="15" customHeight="1">
       <c r="A80" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: 10-Q/A of HSBC for 2022
@@ -4942,12 +4864,11 @@
       </c>
       <c r="J80" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-middle-east-limited/220222-annual-report-and-accounts-2021.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="81" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-middle-east-limited/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="81" ht="15" customHeight="1">
       <c r="A81" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: 10-Q/A of HSBC for 2022
@@ -5002,12 +4923,11 @@
       </c>
       <c r="J81" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2021/financial-and-regulatory-reports/220420-hbmy-financial-statements-31-december-2021.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="82" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2021/financial-and-regulatory-reports/220420-hbmy-financial-statements-31-december-2021.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="82" ht="15" customHeight="1">
       <c r="A82" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: 10-Q/A of HSBC for 2022
@@ -5062,12 +4982,11 @@
       </c>
       <c r="J82" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2020/august/sea-200810-hsbc-holdings-q2-2020-pillar-3.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="83" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2020/august/sea-200810-hsbc-holdings-q2-2020-pillar-3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="83" ht="15" customHeight="1">
       <c r="A83" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: 10-Q/A of HSBC for 2022
@@ -5121,12 +5040,11 @@
       </c>
       <c r="J83" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/fixed-income-investors/issuance-programmes/hsbc-holdings/2021/210330-hghq-2021-at1-offering-memorandum.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="84" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/fixed-income-investors/issuance-programmes/hsbc-holdings/2021/210330-hghq-2021-at1-offering-memorandum.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="84" ht="15" customHeight="1">
       <c r="A84" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: 10-Q/A of HSBC for 2022
@@ -5181,12 +5099,11 @@
       </c>
       <c r="J84" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/group/2015/annual-results/hsbc-holdings-plc/hsbc-holdings-plc-capital-and-risk-management-pillar-3-disclosures-at-31-december-2015.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="85" ht="30" customHeight="1">
+          <t>https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/group/2015/annual-results/hsbc-holdings-plc/hsbc-holdings-plc-capital-and-risk-management-pillar-3-disclosures-at-31-december-2015.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="85" ht="15" customHeight="1">
       <c r="A85" s="3" t="inlineStr">
         <is>
           <t>SEC and Regulatory: 10-Q/A of HSBC for 2022
@@ -5246,8 +5163,7 @@
       </c>
       <c r="J85" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
         </is>
       </c>
     </row>

--- a/data/evaluate/site-search-results-pruned.xlsx
+++ b/data/evaluate/site-search-results-pruned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arunpshankar/Desktop/Projects/VertexAIDocExplorer/data/evaluate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019B6C98-387E-D947-9781-C2783859495D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EB5E96-C394-3544-A1F7-CCE52258EF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="282">
   <si>
     <t>query</t>
   </si>
@@ -1345,9 +1345,6 @@
 snippet also mentions that the meeting will be
 held in 2019, which is the year that the PDF was
 published.</t>
-  </si>
-  <si>
-    <t>HUMAN_LABEL</t>
   </si>
 </sst>
 </file>
@@ -1377,7 +1374,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1400,30 +1397,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1728,10 +1711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K85"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K86" sqref="K86"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1740,7 +1723,7 @@
     <col min="10" max="10" width="50.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1771,11 +1754,8 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1800,11 +1780,8 @@
       <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1833,11 +1810,8 @@
       <c r="J3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1866,11 +1840,8 @@
       <c r="J4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1901,11 +1872,8 @@
       <c r="J5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1936,11 +1904,8 @@
       <c r="J6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
@@ -1971,11 +1936,8 @@
       <c r="J7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>41</v>
       </c>
@@ -2002,11 +1964,8 @@
       <c r="J8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
@@ -2037,11 +1996,8 @@
       <c r="J9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
@@ -2068,11 +2024,8 @@
       <c r="J10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
@@ -2099,11 +2052,8 @@
       <c r="J11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
@@ -2130,11 +2080,8 @@
       <c r="J12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -2165,11 +2112,8 @@
       <c r="J13" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
@@ -2196,11 +2140,8 @@
       <c r="J14" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
@@ -2227,11 +2168,8 @@
       <c r="J15" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>92</v>
       </c>
@@ -2260,11 +2198,8 @@
       <c r="J16" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>92</v>
       </c>
@@ -2295,11 +2230,8 @@
       <c r="J17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>100</v>
       </c>
@@ -2328,11 +2260,8 @@
       <c r="J18" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>100</v>
       </c>
@@ -2363,11 +2292,8 @@
       <c r="J19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>105</v>
       </c>
@@ -2392,11 +2318,8 @@
       <c r="J20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>105</v>
       </c>
@@ -2427,11 +2350,8 @@
       <c r="J21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>108</v>
       </c>
@@ -2456,11 +2376,8 @@
       <c r="J22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>108</v>
       </c>
@@ -2489,11 +2406,8 @@
       <c r="J23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>108</v>
       </c>
@@ -2524,11 +2438,8 @@
       <c r="J24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>112</v>
       </c>
@@ -2559,11 +2470,8 @@
       <c r="J25" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>112</v>
       </c>
@@ -2588,11 +2496,8 @@
       <c r="J26" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>112</v>
       </c>
@@ -2617,11 +2522,8 @@
       <c r="J27" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>112</v>
       </c>
@@ -2652,11 +2554,8 @@
       <c r="J28" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>112</v>
       </c>
@@ -2687,11 +2586,8 @@
       <c r="J29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>112</v>
       </c>
@@ -2722,11 +2618,8 @@
       <c r="J30" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>112</v>
       </c>
@@ -2757,11 +2650,8 @@
       <c r="J31" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>112</v>
       </c>
@@ -2792,11 +2682,8 @@
       <c r="J32" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>112</v>
       </c>
@@ -2827,11 +2714,8 @@
       <c r="J33" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>112</v>
       </c>
@@ -2862,11 +2746,8 @@
       <c r="J34" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>112</v>
       </c>
@@ -2897,11 +2778,8 @@
       <c r="J35" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>112</v>
       </c>
@@ -2926,11 +2804,8 @@
       <c r="J36" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>112</v>
       </c>
@@ -2961,11 +2836,8 @@
       <c r="J37" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>112</v>
       </c>
@@ -2996,11 +2868,8 @@
       <c r="J38" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>112</v>
       </c>
@@ -3031,11 +2900,8 @@
       <c r="J39" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>112</v>
       </c>
@@ -3066,11 +2932,8 @@
       <c r="J40" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>112</v>
       </c>
@@ -3101,11 +2964,8 @@
       <c r="J41" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>193</v>
       </c>
@@ -3136,11 +2996,8 @@
       <c r="J42" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>193</v>
       </c>
@@ -3171,11 +3028,8 @@
       <c r="J43" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>193</v>
       </c>
@@ -3206,11 +3060,8 @@
       <c r="J44" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>193</v>
       </c>
@@ -3241,11 +3092,8 @@
       <c r="J45" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>200</v>
       </c>
@@ -3270,11 +3118,8 @@
       <c r="J46" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>200</v>
       </c>
@@ -3305,11 +3150,8 @@
       <c r="J47" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="K47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>200</v>
       </c>
@@ -3340,11 +3182,8 @@
       <c r="J48" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>200</v>
       </c>
@@ -3375,11 +3214,8 @@
       <c r="J49" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>200</v>
       </c>
@@ -3410,11 +3246,8 @@
       <c r="J50" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>200</v>
       </c>
@@ -3445,11 +3278,8 @@
       <c r="J51" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>200</v>
       </c>
@@ -3480,11 +3310,8 @@
       <c r="J52" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="K52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>200</v>
       </c>
@@ -3515,11 +3342,8 @@
       <c r="J53" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>200</v>
       </c>
@@ -3550,11 +3374,8 @@
       <c r="J54" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="K54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>200</v>
       </c>
@@ -3585,11 +3406,8 @@
       <c r="J55" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="K55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>200</v>
       </c>
@@ -3620,11 +3438,8 @@
       <c r="J56" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="K56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>200</v>
       </c>
@@ -3655,11 +3470,8 @@
       <c r="J57" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>200</v>
       </c>
@@ -3690,11 +3502,8 @@
       <c r="J58" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="K58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>224</v>
       </c>
@@ -3719,11 +3528,8 @@
       <c r="J59" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>224</v>
       </c>
@@ -3752,11 +3558,8 @@
       <c r="J60" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>224</v>
       </c>
@@ -3787,11 +3590,8 @@
       <c r="J61" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>224</v>
       </c>
@@ -3820,11 +3620,8 @@
       <c r="J62" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>224</v>
       </c>
@@ -3855,11 +3652,8 @@
       <c r="J63" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>224</v>
       </c>
@@ -3888,11 +3682,8 @@
       <c r="J64" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>235</v>
       </c>
@@ -3923,11 +3714,8 @@
       <c r="J65" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>236</v>
       </c>
@@ -3952,11 +3740,8 @@
       <c r="J66" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>236</v>
       </c>
@@ -3987,11 +3772,8 @@
       <c r="J67" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>236</v>
       </c>
@@ -4022,11 +3804,8 @@
       <c r="J68" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>236</v>
       </c>
@@ -4057,11 +3836,8 @@
       <c r="J69" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>236</v>
       </c>
@@ -4090,11 +3866,8 @@
       <c r="J70" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>236</v>
       </c>
@@ -4125,11 +3898,8 @@
       <c r="J71" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>246</v>
       </c>
@@ -4160,11 +3930,8 @@
       <c r="J72" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>246</v>
       </c>
@@ -4195,11 +3962,8 @@
       <c r="J73" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>246</v>
       </c>
@@ -4230,11 +3994,8 @@
       <c r="J74" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>251</v>
       </c>
@@ -4263,11 +4024,8 @@
       <c r="J75" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="K75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>254</v>
       </c>
@@ -4298,11 +4056,8 @@
       <c r="J76" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="K76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>254</v>
       </c>
@@ -4333,11 +4088,8 @@
       <c r="J77" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>254</v>
       </c>
@@ -4368,11 +4120,8 @@
       <c r="J78" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="K78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>254</v>
       </c>
@@ -4403,11 +4152,8 @@
       <c r="J79" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>254</v>
       </c>
@@ -4438,11 +4184,8 @@
       <c r="J80" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="K80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>254</v>
       </c>
@@ -4473,11 +4216,8 @@
       <c r="J81" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="K81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>254</v>
       </c>
@@ -4508,11 +4248,8 @@
       <c r="J82" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="K82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>254</v>
       </c>
@@ -4543,11 +4280,8 @@
       <c r="J83" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="K83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>254</v>
       </c>
@@ -4578,11 +4312,8 @@
       <c r="J84" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="K84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>254</v>
       </c>
@@ -4612,9 +4343,6 @@
       </c>
       <c r="J85" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="K85">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
